--- a/data_cleaned.xlsx
+++ b/data_cleaned.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I625"/>
+  <dimension ref="A1:J625"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>platform</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>product_name_lower</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -522,6 +527,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>tai nghe bluetooth nhét tai ribi x55 - siêu mỏng - nằm gọn trong tai - không gây đau tai - invisible wearing - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -565,6 +575,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>tai nghe game không dây bluetooth và lighspeed logitech g435 – mic ảo tích hợp, nhẹ, tương thích pc, điện thoại, ps4, ps5 - màu</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -608,6 +623,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>headphone tai nghe chụp tai bluetooth rockspace o2 kết nối không dây có mic nghe nhạc liên tục 15h - hàng chính hãng bảo hành 12 tháng</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -651,6 +671,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>tai nghe bluetooth f9 pro thương hiệu pagini phiên bản cập nhật 2021 – thời gian sử dụng lên tới 4h - tai nghe không dây mang lại sự tiện lợi cho người sử dụng – âm thanh trầm ấm - hàng nhập khẩu</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -694,6 +719,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>tai nghe bluetooth chụp tai remax rb-620hb kiểu dáng on-ear - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -737,6 +767,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>tai nghe bluetooth tai nghe cảm ứng không dây wireless headset - hàng chính hãng pkcb</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -780,6 +815,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>tai nghe bluetooth 5.0 không dây bluetooth chống nước tai nghe âm thanh nổi tws - hàng chính hãng pkcb</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -823,6 +863,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>tai nghe bluetooth f9 v5.1, tai nghe không dây cảm ứng thông minh, màn hình hiển thị pin sắc nét- hàng nhập khẩu</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -866,6 +911,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>tai nghe bluetooth chụp tai sony wh1000xm6mẫu mới</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -909,6 +959,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>tai nghe havit hakii light</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -952,6 +1007,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>tai nghe tws xiaomi redmi buds 6 lite</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -995,6 +1055,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>tai nghe tws jbl wave beam 2</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1038,6 +1103,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>tai nghe tws rezo k50</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1081,6 +1151,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>tai nghe bluetooth true wireless havit tw967 bt 5.1, thiết kế công thái học, driver 10mm, nghe nhạc đến 5h - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1124,6 +1199,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>tai nghe chụp tai soundcore space one a3035</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1167,6 +1247,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>tai nghe tws ava+ buds life air 2 pro</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1210,6 +1295,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>tai nghe tws ava+ buds life air 3</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1253,6 +1343,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>tai nghe tws rezo air 5 deluxe anc</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1296,6 +1391,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>tai nghe tws samsung galaxy buds3 pro r630n</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1339,6 +1439,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>tai nghe bluetooth chụp tai sony wh1000xm6mẫu mới</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1382,6 +1487,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>tai nghe havit hakii light</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1425,6 +1535,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>tai nghe tws xiaomi redmi buds 6 lite</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1468,6 +1583,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>tai nghe tws jbl wave beam 2</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1511,6 +1631,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>tai nghe tws rezo k50</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1554,6 +1679,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>tai nghe chụp tai soundcore space one a3035</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1597,6 +1727,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>tai nghe chụp tai gaming hp hyperx cloud stinger core ii</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1640,6 +1775,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>tai nghe tws ava+ buds life air 2 pro</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1683,6 +1823,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>tai nghe chụp tai gaming hp hyperx cloud stinger core ii</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1726,6 +1871,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>tai nghe tws ava+ buds life air 3</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1769,6 +1919,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>tai nghe bluetooth lenovo livepods lp40 tws hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1812,6 +1967,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>tai nghe bluetooth không dây firo a18 - tai nghe firo a18 bluetooth v5.3 - điều khiển cảm ứng thông minh - công nghệ kháng nước ipx5 - tai nghe bluetooth giảm tiếng ồn firo a18 - phù hợp với tất cả dòng máy - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1855,6 +2015,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>tai nghe không dây tws qcy ailybuds lite - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1898,6 +2063,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>tai nghe nhét tai bluetooth chống nước sony wi-c100 - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1941,6 +2111,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>tai nghe bluetooth v5.4 ho.co ew72 chống ồn, âm thanh sống động, màn hình led hiển thị cảm ứng đa chức năng - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1984,6 +2159,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>tai nghe bluetooth true wireless samsung galaxy buds fe r400n - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2027,6 +2207,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>tai nghe bluetooth true wireless anker soundcore r50i nc a3959 - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2070,6 +2255,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>tai nghe bluetooth xiaomi redmi buds 6 active - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2113,6 +2303,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>tai nghe bluetooth xiaomi redmi buds 6 play - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2156,6 +2351,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>tai nghe bluetooth apple airpods 4</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2199,6 +2399,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>tai nghe bluetooth không dây nhét tai rockspace eb900 tws có mic - hàng chính hãng bảo hành 12 tháng</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2242,6 +2447,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>đệm thay thế tai nghe headphone tai nghe bluetooth chụp tai rockspace o2 - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2285,6 +2495,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>tai nghe bluetooth ribi g60 - âm thanh cực hay - pin trâu đến 8h - sạc nhanh type - c - mẫu mã cực đẹp -  hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2328,6 +2543,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>tai nghe bluetooth lenovo xt80 thể thao , chống ồn chủ động anc , âm thanh nổi - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2371,6 +2591,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>tai nghe bluetooth true wireless amoi f9 cảm ứng vân tay, nâng cấp dock sạc có led báo pin kép - hàng nhập khẩu</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2414,6 +2639,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>tai nghe bluetooth apple airpods pro 2 usb-c - mtjv3zp/a</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2457,6 +2687,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>tai nghe bluetooth true wireless anker soundcore r50i a3949 | hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2500,6 +2735,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>headphone tai nghe bluetooth chụp tai không dây chống ồn chủ động anc rockspace o3 có mic nghe nhạc 15h hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2543,6 +2783,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>tai nghe bluetooth cao cấp eq2 5.3 pin 7h âm thanh sống động bass căng - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2586,6 +2831,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>tai nghe bluetooth không dây cao cấp eq1 pin 7h âm thanh sống động bass chắc cảm ứng, có mic đèn led sang trọng - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2629,6 +2879,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>tai nghe bluetooth true wireless anker soundcore r50i a3949 - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2672,6 +2927,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>tai nghe chụp tai bluetooth havit h655bt - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2715,6 +2975,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>hàng chính hãng - tai nghe scs s3 dành cho mũ bảo hiểm tích hợp intercom</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2758,6 +3023,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>tai nghe bluetooth rock retro nghe nhạc liên tục 12h - hàng chính hãng bảo hành 1 năm</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2801,6 +3071,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>tai nghe bluetooth firo fi5 pro2 - tai nghe không dây firo công nghệ bluetooth v5.3 - kháng nước ipx5 - điều khiển cảm ứng thông minh - âm bass cực hay - chống ồn cực tốt - tai nghe firo fi5 pro2 tương thích với tất cả dòng máy - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2844,6 +3119,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>tai nghe không dây tws havit tw947 bluetooth 5.3, độ trễ cực thấp, thời gian nghe 32 giờ - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2887,6 +3167,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>tai nghe bluetooth nhét tai không dây true wireless earbuds chống ồn anc, âm thanh cực chất , điều khiển cảm ứng, thiết kế đẹp, dễ đeo, dễ dùng, nghe hay, nút đệm cao su êm ái, sạc type c, dùng cho iphone, điện thoại, máy tính bảng -hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2930,6 +3215,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>tai nghe bluetooth apple airpods 3 cổng lightning - mpny3</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2973,6 +3263,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>tai nghe bluetooth truewireless jbl wave beam - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3016,6 +3311,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>tai nghe tws rezo air 5 deluxe anc</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3059,6 +3359,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>tai nghe tws ava+ freego w28</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3102,6 +3407,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>tai nghe tws ava+ freego w28</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3145,6 +3455,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>tai nghe bluetooth không dây nhét tai chống ồn cao cấp v5.0 chính hãng dùng cho iphone samsung oppo vivo huawei xiaomi, tai nghe không dây - hàng chính hãng vinbuy</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3188,6 +3503,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>tai nghe bluetooth cao cấp olaple êm tai, âm thanh sống động từng chi tiết - hàng nhập khẩu</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3231,6 +3551,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>tai nghe bluetooth nhét tai không dây firo fi5 pro2 - pin dock sạc 300mah - bluetooth 5.3 - tai nghe firo fi5 pro2 điều khiển cảm ứng thông minh - công nghệ kháng nước ipx5 - tai nghe không dây firo fi5 pro2 - phù hợp với tất cả dòng máy - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3274,6 +3599,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>tai nghe bluetooth lenovo lp40 pro bluetooth 5.1 có chất lượng âm thanh tốt và tích hợp micro-hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3317,6 +3647,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>tai nghe bluetooth nhét tai v5.3 chính hãng chống ồn cao cấp dùng cho iphone samsung oppo vivo huawei xiaomi tai nghe không dây true wireless - hàng chính hãng pkcb</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3360,6 +3695,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>tai nghe game không dây bluetooth và lighspeed logitech g435 – mic ảo tích hợp, nhẹ, tương thích pc, điện thoại, ps4, ps5 -hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3403,6 +3743,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>tai nghe không dây baseus bowie wm02 true wireless earphones (bluetooth v5.3, 25h sử dụng, kích thước nhỏ gọn, thời trang, app control)  hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3446,6 +3791,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>tai nghe bluetooth nhét tai không dây firo a20 - tai nghe bluetooth enc giảm tiếng ồn thông minh - tai nghe firo a20 bluetooth 5.3 - công nghệ kháng nước ipx5 - tai nghe không dây firo a20 - phù hợp với tất cả dòng máy - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3489,6 +3839,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>tai nghe bluetooth v5.0 hoco e57 chất liệu cao cấp thời gian nghe gọi lâu ( 2 màu) - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3532,6 +3887,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>tai nghe chụp tai bluetooth sony wh-ch520 - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3575,6 +3935,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>tai nghe bluetooth true wireless havit tw959 - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3618,6 +3983,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>tai nghe bluetooth hoco e36 chính hãng, không dây có mic</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3661,6 +4031,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>tai nghe bluetooth remax t9 (đen),hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3704,6 +4079,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>tai nghe bluetooth lanith f9 pro 5.0 - tai nghe nhét tai kết nối không dây phiên bản quốc tế - âm bass êm và sâu, chip aic chống gây chói tai - thiết kế thời thượng, hiện đại - hàng nhập khẩu - tai0f9pro</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3747,6 +4127,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>tai nghe tws samsung galaxy buds3 pro r630n</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3790,6 +4175,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>tai nghe không dây blueetooth lanith cao cấp 5.0 tws f9 – tai nghe bluetooth kiểu dáng hiện đại, thời thượng - hàng nhập khẩu – ta0002</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3833,6 +4223,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>tai nghe bluetooth nhét tai neckband -hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3876,6 +4271,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>tai nghe nhét tai bluetooth có micro focal sphear wireless - màu</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3919,6 +4319,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>tai nghe bluetooth true wireless taotronics soundliberty 53 (tt-bh053) - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3962,6 +4367,11 @@
           <t>Lazada</t>
         </is>
       </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>tai nghe nhét tai không dây x15 bluetooth 5.3 tws chống ồn chế độ chơi game chuyên dụng kèm phụ kiện</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -4005,6 +4415,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>tai nghe chụp tai không dây remax rb-660hb - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -4048,6 +4463,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>núm tai nghe samsung buds2 pro- r510. hàng new - hàng chính hãng có màng lọc. sẵn 2 size</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -4091,6 +4511,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>tai nghe bluetooth không dây lanith 5.0 tws f9 - tai nghe airpord cao cấp - tai nghe bluetooth nhét tai kiểu dáng độc đáo, nhỏ gọn - âm thanh mềm mượt, thoải mái, không làm nhức tai - hàng nhập khẩu - tai000f9b</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -4134,6 +4559,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>edifier x2s - tai nghe nhét tai bluetooth, chơi game, đàm thoại, chống nước ip54, sử dụng 26 giờ- hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -4177,6 +4607,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>tai nghe bluetooth amoi f9 kèm củ sạc 1a và cáp sạc cho dock sạc 3500mah- hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -4220,6 +4655,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>tai nghe bluetooth không dây chống ồn cao cấp v5.0 chính hãng dùng cho iphone samsung oppo vivo huawei xiaomi, tai nghe không dây - hàng chính hãng vinbuy</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -4263,6 +4703,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>tai nghe bluetooth nhét tai ifrogz sound hub tone</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4306,6 +4751,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>tai nghe nhét tai bluetooth chống nước sony wi-c100 - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4349,6 +4799,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>tai nghe v8 tai nghe âm thanh nổi hifi bluetooth tai nghe mic rảnh tay không dây có nút tai nghe móc tai giảm tiếng ồn - hàng nhập khẩu</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4392,6 +4847,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>tai nghe bluetooth energizer tws, tích hợp micro, kháng nước ipx4 - ub2000 - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4435,6 +4895,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>tai nghe true wireless soundpeats capsule 3 pro+ loa kép xmems ldac bluetooth 5.3 - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4478,6 +4943,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>tai nghe bluetooth xiaomi redmi buds 6 play - giaphucstore | hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4521,6 +4991,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>tai nghe bluetooth không dây nhét tai rockspace eb700 tws có mic hàng chính hãng bảo hành 12 tháng</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4564,6 +5039,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>tai nghe nhét tai bluetooth chống nước sony wi-c100 - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4607,6 +5087,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>tai nghe bluetooth chụp tai , headphone không dây bluetooth có mic đàm thoại tiện lợi, pin cực khỏe bluetooth 5.1 cao cấp - hàng chính hãng besti</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -4650,6 +5135,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>tai nghe bluetooth nhét tai music cao cấp v4.1 - khoảng cách kết nối lên tới 10m - thời gian đàm thoại lên tới 3h - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -4693,6 +5183,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>tai nghe không dây logitech zone 300 - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -4736,6 +5231,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>tai nghe bluetooth thể thao ribi x28 - thiết kế đẹp mắt - pin lâu - không gây đau tai - phù hợp chạy bộ và đạp xe - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -4779,6 +5279,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>tai nghe bluetooth không dây kẹp vành tai rockspace x900 ows bluetooth earphones hàng chính hãng bảo hành 12 tháng</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -4822,6 +5327,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>tai nghe bluetooth wiwu ows o300 chất lượng âm thanh hf, dùng cho hoạt động thể thao - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -4865,6 +5375,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>tai nghe bluetooth nhét tai không dây tws rockspace retro mix tape nghe nhạc lên đến 20h hàng chính hãng có bảo hành</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -4908,6 +5423,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>tai nghe bluetooth truyền âm thanh qua xương shokz opencomm2/opencomm2 uc - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -4951,6 +5471,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>tai nghe bluetooth không dây nhét tai chống ồn chủ động anc rockspace a5 pro tws có mic hàng chính hãng bh 12 tháng</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -4994,6 +5519,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>tai nghe bluetooth nhét tai không dây tws rockspace air bubble nghe nhạc lên đến 20h hàng chính hãng bảo hành 12 tháng</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -5037,6 +5567,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>chuột game hiệu suất cao logitech g502 hero - cảm biến hero 25k, rgb lightsync, 11 nút lập trình, điều chỉnh trọng lượng, pc -hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -5080,6 +5615,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>chuột game có dây logitech g102 lightsync - tùy chỉnh rgb, 6 nút lập trình, nhẹ, 8000 dpi, pc/mac - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -5123,6 +5663,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>chuột có dây game fuhlen g90prox  - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -5166,6 +5711,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>chuột game có dây logitech g203 lightsync - tùy chỉnh rgb, 6 nút lập trình, nhẹ, 8000 dpi, pc/mac - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -5209,6 +5759,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>chuột máy tính có dây gaming newmen g8plus, 4200dpi, sensor pixart 3519, switch kailh 20m, leg rgb backlit, đen - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -5252,6 +5807,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>chuột có dây gaming razer deathadder essential - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -5295,6 +5855,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>chuột gaming rapoo vt200 đen - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -5338,6 +5903,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>chuột có dây logitech g502 hero - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -5381,6 +5951,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">chuột dareu lm103- màu đen - hàng chính hãng </t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -5424,6 +5999,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>chuột dareu gaming em908 (led rgb) - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -5467,6 +6047,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>chuột không dây logitech m330 silent plus giảm ồn 90% - usb 2.4ghz, pin 2 năm, phù hợp người thuận tay phải, pc/ laptop - hàng chính hãng - màu đen</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -5510,6 +6095,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>chuột game không dây lightspeed logitech g304 - cảm biến hero, 12k dpi, nhẹ, 6 nút lập trình, on-board memory, pin 250h - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -5553,6 +6143,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>chuột chơi game có dây logitech g102 8000dpi rgb 6 phím - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -5596,6 +6191,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>bộ chuột dareu em908 pink và bàn di chuột dareu esp100 pink - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -5639,6 +6239,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>chuột logitech g pro x superlight - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -5682,6 +6287,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>chuột gaming có dây có led vs786 deli - chuột laptop máy tính rgb đổi 7 màu liên tục, chuyên dùng cho laptop, máy tính, pc - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -5725,6 +6335,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>chuột gaming t-wolf v5 led usb - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -5768,6 +6383,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>chuột razer deathadder v2 x hyperspeed-wireless ergonomic (hàng chính hãng)_rz01-04130100-r3a1</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -5811,6 +6431,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>chuột game không dây sạc điện hxsj t30  3600dpi wireless 2.4ghz, usb type c - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -5854,6 +6479,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>chuột có dây gaming newmen g8 plus - đại bàng huyền thoại - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -5897,6 +6527,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>chuột gaming led chơi game không dây wireless 2.4ghz 3600dpi t30 - hàng nhập khẩu</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -5940,6 +6575,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>chuột usb máy tính chuyên game newmen g7+ _ hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -5983,6 +6623,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>chuột led rgb 7200 dpi gaming mouse p19rgb cho máy tính , laptop hàng nhập khẩu</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -6026,6 +6671,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>chuột gaming không dây bluetooth sạc pin hxsj g-1800 cho game thủ chơi game chuyên nghiệp kết nối wireless 2.4g - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -6069,6 +6719,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>chuột gaming có dây e-dra em6102 - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -6112,6 +6767,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>chuột không dây hxsj t67 có 6 nút cầm tay công thái học dùng cho văn phòng chơi game chuyên nghiệp - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -6155,6 +6815,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>chuột gaming có dây dareu em911 rgb - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -6198,6 +6863,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>chuột gaming esport macro x15 led rgb 12800 dpi 12 phím cho máy tính laptop hàng nhập khẩu</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -6241,6 +6911,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>chuột cơ gaming led rgb 12800dpi mk500 mechanical gaming mouse e-sport cho máy tính laptop hàng nhập khẩu</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -6284,6 +6959,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>chuột led rgb 3200 dpi gaming mouse a868 chống mỏi cổ tay cho máy tính laptop hàng nhập khẩu</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -6327,6 +7007,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>chuột gaming fuhlen g60s pro rgb, dpi 4200, app chỉnh macro, cảm biến quang pixart 3519- hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -6370,6 +7055,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>chuột gaming không dây logitech g pro x superlight 2 lightspeed - nhẹ 60g, switch lightforce, dpi 32k - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -6413,6 +7103,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>chuột gaming không dây logitech g309 lightspeed - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -6456,6 +7151,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>chuột gaming logitech g102 gen 2 lightsync - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -6499,6 +7199,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>chuột gaming logitech g102/g203 có dây lightsync - hàng chính hãng - bảo hành chính hãng 24 tháng</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -6542,6 +7247,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>chuột máy tính vision g8 ( chính hãng )</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -6585,6 +7295,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>chuột máy tính newmen g10 - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -6628,6 +7343,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>chuột chơi game logitech g pro x superlight wireless – hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -6671,6 +7391,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>chuột không dây siêu mỏng có thể sạc điện chơi game chuyên nghiệp đèn led 7 màu a2 - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -6714,6 +7439,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>chuột chơi game có dây logitech g102 gen2 rgb black - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -6757,6 +7487,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>chuột chơi game e-dra em6102 - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -6800,6 +7535,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>chuột máy tính chuyên phòng game newmen g7plus_hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -6843,6 +7583,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>chuột game hiệu suất cao logitech g502 hero rgb lightsync - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -6886,6 +7631,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>chuột quang có dây dùng cho game văn phòng newmen m266 - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -6929,6 +7679,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>chuột chơi game có dây logitech g403 prodigy 12000dpi rgb 6 phím - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -6972,6 +7727,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>chuột không dây gaming logitech g304</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -7015,6 +7775,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>chuột sạc bluetooth silent logitech mx anywhere 3s</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -7058,6 +7823,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>chuột bluetooth gaming asus rog strix impact iii</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -7101,6 +7871,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>chuột có dây gaming logitech g502 hero</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -7144,6 +7919,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>chuột bluetooth silent rapoo b2w</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -7187,6 +7967,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>chuột gaming yindiao g5 6d 4 tốc độ cho pubg - giao màu ngẫu nhiên - hàng nhập khẩu</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -7230,6 +8015,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>chuột sạc bluetooth gaming asus rog keris aimpoint</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -7273,6 +8063,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>chuột có dây gaming rapoo v10semẫu mới</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -7316,6 +8111,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>chuột bluetooth philips spk7448</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -7359,6 +8159,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>chuột sạc bluetooth asus rog harpe ace aim lab edition</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -7402,6 +8207,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>chuột game có dây rgb logitech g403 hero - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -7445,6 +8255,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>chuột sạc bluetooth silent logitech mx anywhere 3s</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -7488,6 +8303,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>chuột bluetooth gaming asus rog strix impact iii</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -7531,6 +8351,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>chuột có dây gaming logitech g502 hero</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -7574,6 +8399,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>chuột bluetooth silent rapoo b2w</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -7617,6 +8447,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>chuột sạc bluetooth gaming asus rog keris aimpoint</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -7660,6 +8495,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>chuột không dây silent logitech m331</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -7703,6 +8543,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>chuột có dây gaming rapoo v10semẫu mới</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -7746,6 +8591,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>chuột bluetooth philips spk7448</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -7789,6 +8639,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>chuột sạc bluetooth asus rog harpe ace aim lab edition</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -7832,6 +8687,11 @@
           <t>Lazada</t>
         </is>
       </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>dây có thể rút vào chuột dễ thương cô gái sáng tạo thiết bị ngoại vi cho máy tính máy tính xách tay usb kính thiên văn chuột chuột quang</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -7875,6 +8735,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>chuột không dây silent logitech m331</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -7918,6 +8783,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>chuột razer deathadder essential-ergonomic wired_rz01-03850100-r3m1- hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -7961,6 +8831,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>chuột không dây gaming logitech g304</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -8004,6 +8879,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>chuột công thái học  không dây newmen f1000 dual mode - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -8047,6 +8927,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>chuột razer deathadder essential-ergonomic wired (hàng chính hãng)_rz01-03850100-r3m1</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -8090,6 +8975,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>razer viper v3 pro - chuột gaming không dây |form đối xứng | siêu nhẹ | polling 8k hz | dpi 35k | switch quang học gen 3 | hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -8133,6 +9023,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">chuột có dây newmen g8 plus ( đại bàng non, dpi max 4200) – hàng chính hãng </t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -8176,6 +9071,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>chuột không dây gaming t-wolf q13 - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -8219,6 +9119,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>chuột led rgb 7200 dpi gaming esport mouse macro x9 cho máy tính laptop hàng nhập khẩu</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -8262,6 +9167,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>chuột có dây razer deathadder v3-ultra-lightweight ergonomic esports mouse (hàng chính hãng)</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -8305,6 +9215,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>chuột không dây logitech g304 - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -8348,6 +9263,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>chuột không dây basilisk v3 x hyperspeed (hàng chính hãng)_rz01-04870100-r3a1</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -8391,6 +9311,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>chuột gaming không dây razer viper v3 hyperspeed - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -8434,6 +9359,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>chuột gaming rapoo vt960pro dual mode oled - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -8477,6 +9407,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>chuột gaming có dây asus tuf m3 gen ii - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -8520,6 +9455,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>chuột không dây gaming logitech g304 - cảm biến hero, 12k dpi, nhẹ, 6 nút lập trình, on-board memory, pin 250h -hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -8563,6 +9503,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>chuột gaming icore gm03 - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -8606,6 +9551,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>chuột led rgb 6400 dpi gaming esport j900 macro cho máy tính laptop hàng nhập khẩu</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -8649,6 +9599,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> chuột gaming không dây logitech pro x superlight 2 lightspeed wireless - hàng chính hãng - bảo hành 24 tháng [lỗi 1 đổi 1</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -8692,6 +9647,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>chuột gaming logitech pro 2 lightspeed - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -8735,6 +9695,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>bàn di chuột game logitech g240 chống trượt - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -8778,6 +9743,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>chuột led rgb 7200dpi gaming macro mouse c8 cho máy tính laptop hàng nhập khẩu</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -8821,6 +9791,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>chuột chuyên game r8 1602 đèn led đa màu (đen) - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -8864,6 +9839,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>chuột game không dây logitech g502 x plus lightspeed – switch lightforce hybrid, rgb lightsync, cảm biến hero 25k, windows/mac os  -hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -8907,6 +9887,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>combo game không dây logitech g: chuột lightspeed g304 se và tai nghe bluetooth g435 se, tương thích pc,mac ps4 ps5, micro kép tích hợp - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -8950,6 +9935,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>chuột game có dây logitech g502 x  – switch lightforce hybrid, cảm biến hero 25k, 13 nút macro, tương thích windows/mac os - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -8993,6 +9983,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>chuột game không dây logitech g pro wireless - thiết kế cấp độ esport, nhẹ, cảm biến hero 25k, rgb lightsync, lightspeed -hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -9036,6 +10031,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>chuột chơi game có dây fuhlen l102 1000dpi 3 phím - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -9079,6 +10079,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>chuột game không dây lightspeed rgb logitech g703 - cảm biến hero 25k, tương thích powerplay, nhẹ 95g+10g cân tùy chỉnh, pin 60h, pc/mac -hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -9122,6 +10127,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>chuột không dây chơi game kbm 113-x801 thiết kế độc lạ led rgb đổi màu click chống ồn dpi 1600 - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -9165,6 +10175,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>chuột game không dây logitech g pro wireless - thiết kế cấp độ esport, nhẹ, cảm biến hero 25k, rgb lightsync, lightspeed - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -9208,6 +10223,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>chuột không dây gaming dareu em901x rgb - sakura pink ( superlight, fast charing dock ) - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -9251,6 +10271,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>chuột led rgb 3600 dpi gaming mouse hxsj x100 - hàng nhập khẩu</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -9294,6 +10319,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>chuột có dây newmen g10 màu đen - gaming- hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -9337,6 +10367,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>chuột gaming logitech pro x superlight 2 dex - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -9380,6 +10415,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>sạc dự phòng energizer 4,600mah 3.6v li-ion ue4600pqbk,sạc nhanh pd 22.5w, bảo hành 24 tháng 1 đổi 1 - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -9423,6 +10463,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>pin dự phòng pd 20w rockspace p91 sạc nhanh 10000mah hàng chính hãng bảo hành 12 tháng</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -9466,6 +10511,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>pin sạc dự phòng xiaomi 10000mah 22.5w pocket có kèm cáp sạc - hàng nhập khẩu</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -9509,6 +10559,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>sạc dự phòng energizer pd65w 27,000mah/3.7v li-ion xp27001pd, hỗ trợ sạc cho laptop, chống cháy nổ - hàng chính hãng bảo hành 12 tháng</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -9552,6 +10607,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>[mỹ] sạc dự phòng energizer qm5000 mini sạc nam châm từ tính dung lượng 5000mah - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -9595,6 +10655,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>pin sạc dự phòng laptop hubbfast lap100 100w 26800mah, sạc nhanh pd type-c usb-a, màn hình led, đa năng, hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -9638,6 +10703,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sạc dự phòng xiaomi power bank 10000mah 22.5w lite th | sạc nhanh | sạc cùng lúc nhiều thiết bị | bảo hành 12 tháng | hàng chính hãng </t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -9681,6 +10751,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>pin sạc dự phòng 20000mah type c pd qc 3.0 30w anker a1384 kèm cáp type c - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -9724,6 +10799,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>pin sạc dự phòng anker powercore 20100mah - a1271</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -9767,6 +10847,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>pin sạc dự phòng baseus qpow digital display 3a 10.000mah kèm cable iphone - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -9810,6 +10895,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>pin sạc dự phòng ravpower 20000mah quick charge 3.0 + pd 60w, in/out type-c, sạc được macbook - rp-pb201 - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -9853,6 +10943,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>pin sạc dự phòng hoco j75 tresor 10000mah 2 cổng input/output max 2a (hàng chính hãng)</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -9896,6 +10991,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>pin sạc dự phòng xiaomi 20000mah gen 3 plm18zm - hàng nhập khẩu</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -9939,6 +11039,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>pin sạc dự phòng hoco j73 powerful 30000mah 2 cổng input, 3 cổng output, đèn pin siêu sáng - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -9982,6 +11087,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>pin sạc dự phòng baseus bipow digital display power bank 20000mah ( 15w/20w, usb*2+type c , led display, 2 way fast charge ) - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -10025,6 +11135,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>sạc dự phòng 20000mah sạc nhanh không dây 15w remax rpp-207 sạc nhanh 22.5w qc3.0 - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -10068,6 +11183,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>sạc dự phòng aukey basix mini pd 20w qc3.0 10000mah pb-n83s - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -10111,6 +11231,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>sạc dự phòng không dây từ tính remax rpp-65 10000mah - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -10154,6 +11279,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>pin sạc dự phòng aukey basix mini pb-n83s 10000mah - sạc nhanh power delivery 20w và quick charge 3.0 18w - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -10197,6 +11327,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>trạm sạc dự phòng di động energizer công suất 1100wh|1200w lmfp, mang theo du lịch/camping/leo núi  - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -10240,6 +11375,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>pin dự phòng sạc nhanh baseus adaman metal digital display quick charge (22.5w qc3.0/ pd3.0/ scp/ afafc quick charge) - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -10283,6 +11423,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>sạc dự phòng anker 533 powercore 1usb 2type-c 30w 10000mah a1256 - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -10326,6 +11471,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>pin sạc dự phòng linrui lr011 dung lượng 5000mah, sạc nhanh - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -10369,6 +11519,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>sạc dự phòng xiaomi mi 50w power bank 20000mah bhr5121gl pb2050szm - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -10412,6 +11567,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>pin sạc dự phòng 20000mah xiaomi pb200szm 50w - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -10455,6 +11615,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>sạc dự phòng không dây nam châm baseus ppcxw10 10000mah sạc nhanh 20w cho iphone 12- hàng chính hãng.</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -10498,6 +11663,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>(hàng chính hãng) pin sạc dự phòng yoobao 99wh 26800mah thiết kế vỏ nhôm nguyên khối hỗ trợ sạc nhanh pd 45w, qc 3.0 cho điện thoại laptop, macbook. thích hợp cho các chuyến đi du lịch, công tác xa,....</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -10541,6 +11711,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>pin sạc dự phòng 10000mah hoco j48 2 cổng sạc - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -10584,6 +11759,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>pin sạc dự phòng hoco j59a 20.000mah - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -10627,6 +11807,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>sạc dự phòng đa năng 20.000mah wekome wp-335 - tích hợp 2 cáp sạc nhanh typec &amp; ip - hỗ trợ sạc nhanh lên đên 22,5w - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -10670,6 +11855,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>sạc dự phòng energizer 20.000 mah/3.7v li-polymer - ue20011pq - hàng chính hãng - đen</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -10713,6 +11903,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>pin sạc dự phòng tích hợp cổng usb type-c in/out hỗ trợ power delivery pd xiaomi gen 3 20000mah - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -10756,6 +11951,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>pin sạc dự phòng philips dlp6080wt 8000mah</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -10799,6 +11999,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>pin sạc dự phòng anker powercore 13000mah - a1215021</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -10842,6 +12047,11 @@
           <t>Lazada</t>
         </is>
       </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>[ready stock] 5000mah super fast charge powerbank 120w portable charger power bank fast charging display/led light</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -10885,6 +12095,11 @@
           <t>Lazada</t>
         </is>
       </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>xiaomi 200000mah power bank 120w super fast charging external battery charger pd 20w power bank for iphone 13 14 pro samsung</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -10928,6 +12143,11 @@
           <t>Lazada</t>
         </is>
       </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>lacepulse 丨 mini pin sạc dự phòng với bốn được xây dựng trong cáp, 20000mah dung tích lớn đồ sạc di động</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -10971,6 +12191,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>pin sạc dự phòng hoco j62 - dung lượng 30.000mah - có đèn led - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -11014,6 +12239,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>sạc dự phòng all-in-one dung lượng 15000mah remax rpp-276 - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -11057,6 +12287,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>pin sạc dự phòng baseus qpow pro 10000mah 20000mah pd sạc nhanh tích hợp dây sạc ip / type c màn hình led - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -11100,6 +12335,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>pin sạc dự phòng 20000mah công suất cao 65w baseus kèm dây sạc nhanh type c cho ip, laptop , điện thoại - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -11143,6 +12383,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>sạc dự phòng anker nano power bank 1usb 1type-c 30w 10000 mah a1259 - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -11186,6 +12431,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>sạc dự phòng anker prime 735 power bank 1usb 2type-c 200w 20000 mah a1336 - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -11229,6 +12479,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>pin sạc dự phòng rivacase va2280, lcd (20000mah) - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -11272,6 +12527,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>pin sạc dự phòng anker 323 1a1c 12w 10000mah usb-a và type-c a1334 - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -11315,6 +12575,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>sạc dự phòng anker 323 powercore piq 1usb 1type-c 12w 10000mah a1334 - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -11358,6 +12623,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>pin sạc dự phòng di động wiwu wi-p016 10.000mah - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -11401,6 +12671,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>sạc dự phòng anker 737 powercore 1usb 2type-c 140w pd3.1 24000mah a1289 - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -11444,6 +12719,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> pin sạc dự phòng không dây từ tính remax rpp-519 20000mah tích hợp kèm 2 cáp sạc nhanh pd 22.5w - hàng chính hãng remax</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -11487,6 +12767,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>pin sạc dự phòng 20000mah ravpower rp-pb1214 sạc nhanh 20w, sạc không dây nam châm tối đa 15w, tương thích mag.safe iphone - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -11530,6 +12815,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>pin sạc dự phòng xiaomi 200000mah gen 4 22.5w model pb2022zm - hàng nhập khẩu</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -11573,6 +12863,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>sạc dự phòng anker powercore ii 10000mah - a1230</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -11616,6 +12911,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>sạc dự phòng energizer 20,000mah ue20012pq - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -11659,6 +12959,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>sạc dự phòng có chân đế từ tính không dây anker 633 maggo 10000mah a1641 - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -11702,6 +13007,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>sạc dự phòng anker powercore select 10000mah a1223 - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -11745,6 +13055,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>pin sạc dự phòng 10000mah 22.5w pb100dzm - hàng nhập khẩu</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -11788,6 +13103,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>pin sạc dự phòng linrui lr012 dung lượng 2600mah nhỏ gọn - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -11831,6 +13151,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>sạc dự phòng từ tính không dây đa năng 10000mah wekome wp-47 - hỗ trợ sạc nhanh pd 20w, sạc không dây từ tính max 15w - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -11874,6 +13199,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>sạc dự phòng energizer 30,000mah /3.7v li-polymer ue30055pqbk, bảo hàng 24 tháng 1 đổi 1 - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -11917,6 +13247,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>sạc dự phòng energizer 30,000mah ue30016pq, hỗ trợ sạc nhanh 20w đa nền tảng - hàng chính hãng bảo hành 1 đổi 1 2 năm</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -11960,6 +13295,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>innostyle powermag switch 2in1 20w ia20pd</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -12003,6 +13343,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>innostyle powermag slim 20w im20pdmẫu mới</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -12046,6 +13391,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>xmobile 22.5w neomice gn-82 kèm cáp lightning và type c</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -12089,6 +13439,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>xmobile 22.5w dx367 tích hợp adapter sạc</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -12132,6 +13487,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>innostyle powersmart 20w ip20g2</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -12175,6 +13535,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>xmobile 45w mh803 kèm cáp lightning và type c</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -12218,6 +13583,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J274" t="inlineStr">
+        <is>
+          <t>pin sạc dự phòng mini tích hợp dây sạc rockspace y11 sạc nhanh 22.5w dung lương 10000mah - hàng chính hãng bảo hành 12 tháng</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -12261,6 +13631,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t>xiaomi 33w pb1033mi kèm cáp type c</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -12304,6 +13679,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J276" t="inlineStr">
+        <is>
+          <t>anker zolo 30w a1688 kèm cáp type c</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -12347,6 +13727,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J277" t="inlineStr">
+        <is>
+          <t>xmobile 20w jp331</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -12390,6 +13775,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J278" t="inlineStr">
+        <is>
+          <t>ava+ 10.5w g-dx258 kèm cáp lightning và cáp type c</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -12433,6 +13823,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J279" t="inlineStr">
+        <is>
+          <t>xmobile 22.5w ym-672</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -12476,6 +13871,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J280" t="inlineStr">
+        <is>
+          <t>xmobile 22.5w h19 kèm cáp lightning và type c</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -12519,6 +13919,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t>ava+ 10.5w g-dx258 kèm cáp lightning và cáp type c</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -12562,6 +13967,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J282" t="inlineStr">
+        <is>
+          <t>innostyle powermag switch 2in1 20w ia20pd</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -12605,6 +14015,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J283" t="inlineStr">
+        <is>
+          <t>innostyle powermag slim 20w im20pdmẫu mới</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -12648,6 +14063,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J284" t="inlineStr">
+        <is>
+          <t>xmobile 22.5w neomice gn-82 kèm cáp lightning và type c</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -12691,6 +14111,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J285" t="inlineStr">
+        <is>
+          <t>xmobile 22.5w dx367 tích hợp adapter sạc</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -12734,6 +14159,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J286" t="inlineStr">
+        <is>
+          <t>innostyle powersmart 20w ip20g2</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -12777,6 +14207,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J287" t="inlineStr">
+        <is>
+          <t>xmobile 45w mh803 kèm cáp lightning và type c</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -12820,6 +14255,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J288" t="inlineStr">
+        <is>
+          <t>innostyle powersmart 12w ip12sablkmẫu mới</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -12863,6 +14303,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J289" t="inlineStr">
+        <is>
+          <t>xiaomi 33w pb1033mi kèm cáp type c</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -12906,6 +14351,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J290" t="inlineStr">
+        <is>
+          <t>baseus lipow 22.5w ppjp312 kèm cáp lightning và type c</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -12949,6 +14399,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J291" t="inlineStr">
+        <is>
+          <t>xmobile 22.5w h19 kèm cáp lightning và type c</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -12992,6 +14447,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J292" t="inlineStr">
+        <is>
+          <t>innostyle powersmart 12w ip12sablkmẫu mới</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -13035,6 +14495,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J293" t="inlineStr">
+        <is>
+          <t>xmobile 22.5w ym-672</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -13078,6 +14543,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J294" t="inlineStr">
+        <is>
+          <t>pin sạc dự phòng không dây kèm giá đỡ điện thoại rockspace p20 se sạc nhanh pd 20w 10000mah - hàng chính hãng bảo hành 12 tháng</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -13121,6 +14591,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J295" t="inlineStr">
+        <is>
+          <t>pin sạc dự phòng rockspace y11 sạc nhanh 22.5w dung lượng 20000mah có tích hợp kèm dây sạc - hàng chính hãng bảo hành 12 tháng</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -13164,6 +14639,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J296" t="inlineStr">
+        <is>
+          <t>baseus lipow 22.5w ppjp312 kèm cáp lightning và type c</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -13207,6 +14687,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J297" t="inlineStr">
+        <is>
+          <t>pin sạc dự phòng samsung eb-p4520x 20000 mah 45w-hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -13250,6 +14735,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J298" t="inlineStr">
+        <is>
+          <t>pin sạc dự phòng 20000mah linrui lr009 sạc nhanh, cổng ra type c - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -13293,6 +14783,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J299" t="inlineStr">
+        <is>
+          <t>pin sạc dự phòng linrui lr010 dung lượng chuẩn 20000mah kèm cáp sạc sẵn, màn hình led hiển thị pin - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -13336,6 +14831,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J300" t="inlineStr">
+        <is>
+          <t>pin sạc dự phòng trong suốt dung lượng 10000mah linrui lr016 đèn led 3 chế độ - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -13379,6 +14879,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J301" t="inlineStr">
+        <is>
+          <t>sạc dự phòng energizer 20,000mah/3.7v li-polymer ue20050c - hàng chính hãng bảo hành 2 năm 1 đổi 1</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -13422,6 +14927,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J302" t="inlineStr">
+        <is>
+          <t>sạc dự phòng 50.000mah trong suốt kèm cáp sạc nhanh 4 đầu, tích hợp 4 cáp sạc, làm đèn ngủ - ftaky hàng nhập khẩu</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -13465,6 +14975,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J303" t="inlineStr">
+        <is>
+          <t>sạc dự phòng 50.000mah trong suốt, có sạc nhanh pd 120w, kèm 4 cáp sạc, tích hợp đèn ngủ - ftaky hàng nhập khẩu</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -13508,6 +15023,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J304" t="inlineStr">
+        <is>
+          <t>pin sạc dự phòng micropack power store 10s 10000mah - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -13551,6 +15071,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J305" t="inlineStr">
+        <is>
+          <t>pin dự phòng sạc nhanh vỏ kim loại baseus adaman metal digital display quick charge power bank (10.000mah/20.000mah, 22.5w, pd/qc3.0 quick charge power bank)- hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -13594,6 +15119,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J306" t="inlineStr">
+        <is>
+          <t>sạc dự phòng 9fit pro 20,000mah /3.7v li-polymer - 9pp20k04b, hỗ trợ sạc nhanh - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -13637,6 +15167,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J307" t="inlineStr">
+        <is>
+          <t>sạc dự phòng energizer 10,000mah /3.7v li-polymer ue10050ccbk, công suất 15w đa cổng - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -13680,6 +15215,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J308" t="inlineStr">
+        <is>
+          <t>xmobile 20w jp331</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -13723,6 +15263,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J309" t="inlineStr">
+        <is>
+          <t>anker zolo 30w a1688 kèm cáp type c</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -13766,6 +15311,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J310" t="inlineStr">
+        <is>
+          <t xml:space="preserve">pin sạc dự phòng rockspace y30 10000mah sạc nhanh 22,5w tích hợp củ sạc, hàng chính hãng bảo hành 12 tháng </t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -13809,6 +15359,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J311" t="inlineStr">
+        <is>
+          <t>sạc dự phòng anker zolo power bank high-power multi device usb-c 165w 25000mah a1695 - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -13852,6 +15407,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J312" t="inlineStr">
+        <is>
+          <t>pin sạc dự phòng hoco 10.000mah-j48,hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -13895,6 +15455,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J313" t="inlineStr">
+        <is>
+          <t>sạc dự phòng trong suốt 30000mah - sạc siêu nhanh, tích hợp 4 cáp, 2 cổng usb, sạc cùng lúc nhiều điện thoại - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -13938,6 +15503,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J314" t="inlineStr">
+        <is>
+          <t>sạc dự phòng ham.mer h5 10000mah, có tem chống giả, hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -13981,6 +15551,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J315" t="inlineStr">
+        <is>
+          <t>pin sạc dự phòng 10000mah type c 22.5w xiaomi lite - giaphucstore | hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -14024,6 +15599,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J316" t="inlineStr">
+        <is>
+          <t>pin sạc dự phòng không dây nam châm 5-in-1 rock p50 10000mah 20w tích hợp chân đế giữ điện thoại - hàng chính hãng bảo hành 12 tháng</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -14067,6 +15647,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J317" t="inlineStr">
+        <is>
+          <t>[mỹ] sạc dự phòng energizer qm10002pq sạc nam châm từ tính dung lượng 10000mah tích hợp chân đế xếp gọn - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -14110,6 +15695,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J318" t="inlineStr">
+        <is>
+          <t>sạc dự phòng xiaomi power bank 20000mah (integrated cable) th | sạc nhanh | phù hợp đi máy bay | hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -14153,6 +15743,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J319" t="inlineStr">
+        <is>
+          <t>iphone 16 pro max 256gb</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -14196,6 +15791,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J320" t="inlineStr">
+        <is>
+          <t>iphone 16 pro 128gb</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -14239,6 +15839,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J321" t="inlineStr">
+        <is>
+          <t>samsung galaxy z fold7 5g 12gb/256gbmẫu mới</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -14282,6 +15887,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J322" t="inlineStr">
+        <is>
+          <t>vivo y39 5g 8gb/128gbmẫu mới</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -14325,6 +15935,11 @@
           <t>Lazada</t>
         </is>
       </c>
+      <c r="J323" t="inlineStr">
+        <is>
+          <t>điện thoại oppo neo5 _a31. điện thoại gia rẻ hàng chính hãng đã qua sử dụng</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -14368,6 +15983,11 @@
           <t>Lazada</t>
         </is>
       </c>
+      <c r="J324" t="inlineStr">
+        <is>
+          <t>điện thoại chắc chắn unihertz tank 3 (pin  23800mah,sạc nhanh  120w, ram 32gb(16+16),rom  512gb, ,5g , android 13)</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -14411,6 +16031,11 @@
           <t>Lazada</t>
         </is>
       </c>
+      <c r="J325" t="inlineStr">
+        <is>
+          <t>điện thoại oukitel wp35 s (ram 24gb (6gb + 18gb),rom 256gb, ip68/ip69k, pin 11000mah,6,56 inch,android 14 mediatek )</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -14454,6 +16079,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J326" t="inlineStr">
+        <is>
+          <t>iphone 16 128gb</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -14497,6 +16127,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J327" t="inlineStr">
+        <is>
+          <t>iphone 16 plus 128gb</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -14540,6 +16175,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J328" t="inlineStr">
+        <is>
+          <t>iphone 16 pro max 256gb</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -14583,6 +16223,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J329" t="inlineStr">
+        <is>
+          <t>iphone 16 pro 128gb</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -14626,6 +16271,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J330" t="inlineStr">
+        <is>
+          <t>samsung galaxy z fold7 5g 12gb/256gbmẫu mới</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -14669,6 +16319,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J331" t="inlineStr">
+        <is>
+          <t>vivo v50 lite 5g 8gb/256gb</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -14712,6 +16367,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J332" t="inlineStr">
+        <is>
+          <t>iphone 16 plus 128gb</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -14755,6 +16415,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J333" t="inlineStr">
+        <is>
+          <t>iphone 16 128gb</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -14798,6 +16463,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J334" t="inlineStr">
+        <is>
+          <t>vivo v50 lite 5g 8gb/256gb</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -14841,6 +16511,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J335" t="inlineStr">
+        <is>
+          <t>vivo y39 5g 8gb/128gbmẫu mới</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -14884,6 +16559,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J336" t="inlineStr">
+        <is>
+          <t>điện thoại xiaomi redmi 14c - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -14927,6 +16607,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J337" t="inlineStr">
+        <is>
+          <t>điện thoại realme note 50 , màn 90hz (3gb/64gb) rom quốc tế - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -14970,6 +16655,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J338" t="inlineStr">
+        <is>
+          <t>ốp lưng samsung galaxy s25 ultra trong suốt - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -15013,6 +16703,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J339" t="inlineStr">
+        <is>
+          <t>điện thoại xiaomi redmi a3 - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -15056,6 +16751,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J340" t="inlineStr">
+        <is>
+          <t>điện thoại xiaomi redmi note 14 pro+ 5g (8gb/256gb) - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -15099,6 +16799,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J341" t="inlineStr">
+        <is>
+          <t>điện thoại realme note 50 4gb/128gb - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -15142,6 +16847,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J342" t="inlineStr">
+        <is>
+          <t>apple iphone 16e</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -15185,6 +16895,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J343" t="inlineStr">
+        <is>
+          <t>điện thoại samsung m15 5g 4gb/128gb - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -15228,6 +16943,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J344" t="inlineStr">
+        <is>
+          <t>điện thoại samsung galaxy s25 ultra (12gb/256gb) - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -15271,6 +16991,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J345" t="inlineStr">
+        <is>
+          <t>điện thoại samsung galaxy s25+, điện thoại ai, tìm kiếm thông minh, video camera đêm nightography, chip snapdragon - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -15314,6 +17039,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J346" t="inlineStr">
+        <is>
+          <t>điện thoại samsung galaxy a36 5g (8gb/128gb) - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -15357,6 +17087,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J347" t="inlineStr">
+        <is>
+          <t>điện thoại samsung galaxy a06 5g (4gb/128gb) - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -15400,6 +17135,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J348" t="inlineStr">
+        <is>
+          <t>điện thoại samsung a26 5g 8gb/128gb - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -15443,6 +17183,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J349" t="inlineStr">
+        <is>
+          <t>điện thoại samsung galaxy a26 5g (8gb/128gb) - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -15486,6 +17231,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J350" t="inlineStr">
+        <is>
+          <t>điện thoại xiaomi redmi 13 6gb/128gb - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -15529,6 +17279,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J351" t="inlineStr">
+        <is>
+          <t>điện thoại oppo a58 8gb/128gb - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -15572,6 +17327,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J352" t="inlineStr">
+        <is>
+          <t>điện thoại samsung a06 5g 4gb/64gb - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -15615,6 +17375,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J353" t="inlineStr">
+        <is>
+          <t>điện thoại oppo reno13 f 5g 12gb/512gb - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -15658,6 +17423,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J354" t="inlineStr">
+        <is>
+          <t>điện thoại samsung galaxy a06 5g (4gb/64gb) - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -15701,6 +17471,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J355" t="inlineStr">
+        <is>
+          <t>điện thoại xiaomi 14t pro 5g 12gb/512gb - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -15744,6 +17519,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J356" t="inlineStr">
+        <is>
+          <t>điện thoại samsung galaxy a55 5g - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -15787,6 +17567,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J357" t="inlineStr">
+        <is>
+          <t>điện thoại samsung galaxy a16 lte - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -15830,6 +17615,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J358" t="inlineStr">
+        <is>
+          <t>điện thoại oppo a58 6gb/128gb - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -15873,6 +17663,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J359" t="inlineStr">
+        <is>
+          <t>điện thoại oppo a58 6gb/128gb , sạc nhanh 33w - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -15916,6 +17711,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J360" t="inlineStr">
+        <is>
+          <t>điện thoại oppo a18 (4gb/128gb) - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -15959,6 +17759,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J361" t="inlineStr">
+        <is>
+          <t>điện thoại samsung galaxy a05s (4gb/128gb) - đã kích hoạt bảo hành điện tử - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -16002,6 +17807,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J362" t="inlineStr">
+        <is>
+          <t>điện thoại xiaomi redmi 12 (4gb/128gb) , helio g88 , màn 90hz - hàng nhập khẩu nhật</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -16045,6 +17855,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J363" t="inlineStr">
+        <is>
+          <t>điện thoại xiaomi redmi note 13 6gb/128gb - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -16088,6 +17903,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J364" t="inlineStr">
+        <is>
+          <t>điện thoại xiaomi redmi note 13 8gb/128gb - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -16131,6 +17951,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J365" t="inlineStr">
+        <is>
+          <t>điện thoại samsung a05 4gb/64gb - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -16174,6 +17999,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J366" t="inlineStr">
+        <is>
+          <t>điện thoại redmi note 12r 5g 6/128gb snapdragon 4 gen 2, rom quốc tế có sẳn tiếng việt - hàng nhập khẩu</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -16217,6 +18047,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J367" t="inlineStr">
+        <is>
+          <t>điện thoại xiaomi redmi note 13 pro 5g 8gb/128gb snapdragon 7s gen 2 , màn oled 120hz, rom tiếng việt - hàng nhập khẩu</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -16260,6 +18095,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J368" t="inlineStr">
+        <is>
+          <t>điện thoại oppo a2m 5g 6gb/128gb , dimensity 6020 , màn 90hz , rom tiếng việt - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -16303,6 +18143,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J369" t="inlineStr">
+        <is>
+          <t>điện thoại oppo reno12 f 5g 8gb/256gb - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -16346,6 +18191,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J370" t="inlineStr">
+        <is>
+          <t>điện thoại xiaomi redmi 14c 4gb/128gb - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -16389,6 +18239,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J371" t="inlineStr">
+        <is>
+          <t>điện thoại xiaomi redmi 14c - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -16432,6 +18287,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J372" t="inlineStr">
+        <is>
+          <t>điện thoại realme v60 (6gb/128gb) 5g , chíp dimensity 6300, rom tiếng việt - hàng nhập khẩu</t>
+        </is>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -16475,6 +18335,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J373" t="inlineStr">
+        <is>
+          <t>điện thoại samsung galaxy s24 fe - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -16518,6 +18383,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J374" t="inlineStr">
+        <is>
+          <t>điện thoại samsung galaxy a16 5g - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -16561,6 +18431,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J375" t="inlineStr">
+        <is>
+          <t>điện thoại oppo a3 8gb/128gb - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -16604,6 +18479,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J376" t="inlineStr">
+        <is>
+          <t>apple iphone 13</t>
+        </is>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -16647,6 +18527,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J377" t="inlineStr">
+        <is>
+          <t>điện thoại smartphone vivo y19s siêu bền - ram 4gb rom 128gb - màu đen và xanh - 5500mah - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -16690,6 +18575,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J378" t="inlineStr">
+        <is>
+          <t>adapter sạc anker 313 / 311 charger gen 2 30w 1 cổng type-c a2639  - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -16733,6 +18623,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J379" t="inlineStr">
+        <is>
+          <t>điện thoại samsung galaxy s25, điện thoại ai, tìm kiếm thông minh, video camera đêm nightography, chip snapdragon - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -16776,6 +18671,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J380" t="inlineStr">
+        <is>
+          <t>điện thoại samsung galaxy s25 ultra, điện thoại ai, tìm kiếm thông minh, video camera đêm nightography, s pen đa nhiệm - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -16819,6 +18719,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J381" t="inlineStr">
+        <is>
+          <t>ốp lưng samsung galaxy s25 trong suốt - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -16862,6 +18767,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J382" t="inlineStr">
+        <is>
+          <t>điện thoại xiaomi redmi note 14 6gb/128gb - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -16905,6 +18815,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J383" t="inlineStr">
+        <is>
+          <t>điện thoại xiaomi redmi 14c 6gb/128gb - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -16948,6 +18863,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J384" t="inlineStr">
+        <is>
+          <t>điện thoại xiaomi redmi 13 8gb/128gb - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -16991,6 +18911,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J385" t="inlineStr">
+        <is>
+          <t>apple iphone 14</t>
+        </is>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -17034,6 +18959,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J386" t="inlineStr">
+        <is>
+          <t>điện thoại zte blade a34 (4gb/64gb) màn hình 6.6", pin 5000mah - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -17077,6 +19007,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J387" t="inlineStr">
+        <is>
+          <t>điện thoại samsung a56 5g 8gb/128gb - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -17120,6 +19055,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J388" t="inlineStr">
+        <is>
+          <t>củ sạc samsung không kèm cáp 25w - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -17163,6 +19103,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J389" t="inlineStr">
+        <is>
+          <t>điện thoại samsung a06 5g 4gb/128gb - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -17206,6 +19151,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J390" t="inlineStr">
+        <is>
+          <t>điện thoại xiaomi redmi note 14 5g 8gb/256gb - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -17249,6 +19199,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J391" t="inlineStr">
+        <is>
+          <t>điện thoại tecno spark go 1 (3gb/64gb) - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -17292,6 +19247,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J392" t="inlineStr">
+        <is>
+          <t>điện thoại vivo y19s (4gb/128gb) - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -17335,6 +19295,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J393" t="inlineStr">
+        <is>
+          <t>điện thoại honor x5b plus 4gb/128gb - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -17378,6 +19343,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J394" t="inlineStr">
+        <is>
+          <t>điện thoại poco c75 (8gb/256gb) - hàng chính hãng - đk</t>
+        </is>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -17421,6 +19391,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J395" t="inlineStr">
+        <is>
+          <t>điện thoại samsung a36 5g 8gb/128gb - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -17464,6 +19439,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J396" t="inlineStr">
+        <is>
+          <t>điện thoại xiaomi redmi note 14 6gb/128gb - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -17507,6 +19487,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J397" t="inlineStr">
+        <is>
+          <t>điện thoại samsung galaxy a36 5g - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -17550,6 +19535,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J398" t="inlineStr">
+        <is>
+          <t>điện thoại samsung a16 5g 8gb/128gb - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -17593,6 +19583,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J399" t="inlineStr">
+        <is>
+          <t>điện thoại samsung a06 4gb/64gb - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -17636,6 +19631,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J400" t="inlineStr">
+        <is>
+          <t>điện thoại xiaomi redmi note 10 je 5g 4gb/64gb - màn 90hz - chống nước ip68 - hàng nhập khẩu - bản quốc tế</t>
+        </is>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -17679,6 +19679,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J401" t="inlineStr">
+        <is>
+          <t>điện thoại oppo a58 6gb/128gb - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -17722,6 +19727,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J402" t="inlineStr">
+        <is>
+          <t>iphone 15</t>
+        </is>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -17765,6 +19775,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J403" t="inlineStr">
+        <is>
+          <t>iphone 15 plus</t>
+        </is>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -17808,6 +19823,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J404" t="inlineStr">
+        <is>
+          <t>điện thoại ai samsung galaxy s24 ultra 12gb/512gb, camera 200mp zoom 100x, s pen- tím- hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -17851,6 +19871,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J405" t="inlineStr">
+        <is>
+          <t>điện thoại realme c61 (4gb/128gb) - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -17894,6 +19919,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J406" t="inlineStr">
+        <is>
+          <t>apple iphone 16 pro max</t>
+        </is>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -17937,6 +19967,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J407" t="inlineStr">
+        <is>
+          <t>điện thoại oppo a79 5g (8gb/256gb) - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -17980,6 +20015,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J408" t="inlineStr">
+        <is>
+          <t>điện thoại poco c75 (6gb/128gb) - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -18023,6 +20063,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J409" t="inlineStr">
+        <is>
+          <t>apple iphone 16 plus</t>
+        </is>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -18066,6 +20111,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J410" t="inlineStr">
+        <is>
+          <t>apple iphone 16 - xanh lưu ly - 128gb</t>
+        </is>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -18109,6 +20159,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J411" t="inlineStr">
+        <is>
+          <t>điện thoại tecno spark go 1 ( 4gb - 64gb) - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -18152,6 +20207,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J412" t="inlineStr">
+        <is>
+          <t>điện thoại samsung galaxy a06 (4gb/128gb) - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -18195,6 +20255,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J413" t="inlineStr">
+        <is>
+          <t>điện thoại samsung a06 4gb/128gb - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -18238,6 +20303,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J414" t="inlineStr">
+        <is>
+          <t>điện thoại samsung galaxy a06 - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -18281,6 +20351,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J415" t="inlineStr">
+        <is>
+          <t>apple iphone 16 pro</t>
+        </is>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -18324,6 +20399,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J416" t="inlineStr">
+        <is>
+          <t>dây cao su thay thế cho samsung galaxy fit 2 (sm-r220)- hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -18367,6 +20447,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J417" t="inlineStr">
+        <is>
+          <t>dán màn hình 3d gor cho apple watch series 9/ series 8/ series 7 size 41mm / 45mm (hộp 2 miếng) - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -18410,6 +20495,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J418" t="inlineStr">
+        <is>
+          <t>ốp bảo vệ cao cấp thương hiệu uniq valencia dành cho apple watch series 4/5/6/se size 44mm</t>
+        </is>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -18453,6 +20543,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J419" t="inlineStr">
+        <is>
+          <t>đồng hồ thông minh ama watch nam nữ chống nước | gọi điện thoại xem tin nhắn theo dõi sức khỏe vận động thiết kế nhỏ gọn thời trang hàng nhập khẩu</t>
+        </is>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -18496,6 +20591,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J420" t="inlineStr">
+        <is>
+          <t>samsung galaxy watch8 44mm dây siliconemẫu mới</t>
+        </is>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -18539,6 +20639,11 @@
           <t>Lazada</t>
         </is>
       </c>
+      <c r="J421" t="inlineStr">
+        <is>
+          <t>vòng tay thông minh m6, đồng hồ theo dõi sức khỏe kết nối bluetooth</t>
+        </is>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -18582,6 +20687,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J422" t="inlineStr">
+        <is>
+          <t>samsung galaxy watch8 lte 40mm dây siliconemẫu mới</t>
+        </is>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -18625,6 +20735,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J423" t="inlineStr">
+        <is>
+          <t>dây đeo thay thế dành cho vòng đeo tay thông minh xiaomi miband 7 dẻo tpu- hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -18668,6 +20783,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J424" t="inlineStr">
+        <is>
+          <t>đồng hồ thông minh ama watch s2 | nam nữ | chống nước | kết nối bluetooth gọi điện thoại theo dõi sức khỏe vận động màn hình cong tràn viền hàng nhập khẩu</t>
+        </is>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
@@ -18711,6 +20831,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J425" t="inlineStr">
+        <is>
+          <t>đồng hồ thông minh chống nước ip67 dành cho trẻ em nhuẩn ama watch q16s hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
@@ -18754,6 +20879,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J426" t="inlineStr">
+        <is>
+          <t>đồng hồ thông minh trẻ em gọi video chống nước định vị wifi model ama watch dh11 hàng nhập khẩu</t>
+        </is>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
@@ -18797,6 +20927,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J427" t="inlineStr">
+        <is>
+          <t>cáp sạc thay thế nillkin dành cho đồng hồ garmin fenix / forerunner  / instinct / vivoactive / vivomove / venu / approach / epix - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -18840,6 +20975,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J428" t="inlineStr">
+        <is>
+          <t>đồng hồ thông minh samsung galaxy watch5 40mm sm-r900n - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -18883,6 +21023,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J429" t="inlineStr">
+        <is>
+          <t>ốp case kèm dây đeo kiểu gshock kai dành cho đồng hồ apple watch- hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -18926,6 +21071,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J430" t="inlineStr">
+        <is>
+          <t>đồng hồ định vị trẻ em wonlex kt18 - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
@@ -18969,6 +21119,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J431" t="inlineStr">
+        <is>
+          <t>kính cường lực đồng hồ thông minh q12, q15, q12b, d06s, lt31, dh11, g2, a28, ds60, m80, q16s, k10 kích thước 30mm x 35mm hàng nhập khẩu</t>
+        </is>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
@@ -19012,6 +21167,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J432" t="inlineStr">
+        <is>
+          <t>dán film cường lực full 3d dành cho apple watch series 10 42mm / 46mm hiệu wiwu ivista chống va đập, vát cạnh 2.5d, hạn chế vân tay - hàng nhập khẩu</t>
+        </is>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
@@ -19055,6 +21215,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J433" t="inlineStr">
+        <is>
+          <t>đồng hồ thông minh gắn sim nghe gọi chống nước ip67 gọi video call định vị gps, wifi dàn cho trẻ em học sinh cấp 1 2 5 6 7 8 9 10 11 12 tuổi ama watch d32 hàng nhập khẩu</t>
+        </is>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
@@ -19098,6 +21263,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J434" t="inlineStr">
+        <is>
+          <t>xiaomi mi band 10 viền nhôm dây tpu</t>
+        </is>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
@@ -19141,6 +21311,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J435" t="inlineStr">
+        <is>
+          <t>đồng hồ thông minh trẻ em ama watch q12b hàng nhập khẩu</t>
+        </is>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
@@ -19184,6 +21359,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J436" t="inlineStr">
+        <is>
+          <t>cáp sạc cho đồng hồ huami amazfit gts3/ gtr3/ gtr3 pro/ t-rex 2/ gtr 4/ gts 4- hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
@@ -19227,6 +21407,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J437" t="inlineStr">
+        <is>
+          <t>kidcare k1 54mm dây silicone</t>
+        </is>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
@@ -19270,6 +21455,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J438" t="inlineStr">
+        <is>
+          <t>đồng hồ thông minh nữ ama watch s27 thời trang kết nối bluetooth theo dõi sức khỏe vận động màn hình tròn hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
@@ -19313,6 +21503,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J439" t="inlineStr">
+        <is>
+          <t>huawei watch 5 42mm dây compositemẫu mới</t>
+        </is>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
@@ -19356,6 +21551,11 @@
           <t>Lazada</t>
         </is>
       </c>
+      <c r="J440" t="inlineStr">
+        <is>
+          <t>đồng hồ thông minh  chống thấm nước ip67 119plus theo dõi sức khỏe</t>
+        </is>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
@@ -19399,6 +21599,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J441" t="inlineStr">
+        <is>
+          <t>dây đeo da dành cho apple watch ultra / apple watch series 1-8/se/se 2022, kai.n_genuine leather - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
@@ -19442,6 +21647,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J442" t="inlineStr">
+        <is>
+          <t>huawei watch 5 42mm dây composite</t>
+        </is>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
@@ -19485,6 +21695,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J443" t="inlineStr">
+        <is>
+          <t>amazfit bip 6 46.3mm dây silicone</t>
+        </is>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
@@ -19528,6 +21743,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J444" t="inlineStr">
+        <is>
+          <t>garmin forerunner 570 47mm dây siliconemẫu mới</t>
+        </is>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
@@ -19571,6 +21791,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J445" t="inlineStr">
+        <is>
+          <t>garmin forerunner 570 42.4mm dây siliconemẫu mới</t>
+        </is>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
@@ -19614,6 +21839,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J446" t="inlineStr">
+        <is>
+          <t>garmin forerunner 970 47mm dây siliconemẫu mới</t>
+        </is>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
@@ -19657,6 +21887,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J447" t="inlineStr">
+        <is>
+          <t>garmin vivoactive 6 42.2mm dây silicone</t>
+        </is>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
@@ -19700,6 +21935,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J448" t="inlineStr">
+        <is>
+          <t>huawei watch 5 42mm dây compositemẫu mới</t>
+        </is>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
@@ -19743,6 +21983,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J449" t="inlineStr">
+        <is>
+          <t>xiaomi mi band 10 viền gốm dây cao sumẫu mới</t>
+        </is>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
@@ -19786,6 +22031,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J450" t="inlineStr">
+        <is>
+          <t>xiaomi mi band 10 viền gốm dây cao sumẫu mới</t>
+        </is>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
@@ -19829,6 +22079,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J451" t="inlineStr">
+        <is>
+          <t>xiaomi mi band 10 viền nhôm dây tpu</t>
+        </is>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
@@ -19872,6 +22127,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J452" t="inlineStr">
+        <is>
+          <t>samsung galaxy watch8 lte 40mm dây siliconemẫu mới</t>
+        </is>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
@@ -19915,6 +22175,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J453" t="inlineStr">
+        <is>
+          <t>samsung galaxy watch8 44mm dây siliconemẫu mới</t>
+        </is>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
@@ -19958,6 +22223,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J454" t="inlineStr">
+        <is>
+          <t>huawei watch 5 42mm dây composite</t>
+        </is>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
@@ -20001,6 +22271,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J455" t="inlineStr">
+        <is>
+          <t>amazfit bip 6 46.3mm dây silicone</t>
+        </is>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
@@ -20044,6 +22319,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J456" t="inlineStr">
+        <is>
+          <t>garmin forerunner 570 47mm dây siliconemẫu mới</t>
+        </is>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
@@ -20087,6 +22367,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J457" t="inlineStr">
+        <is>
+          <t>garmin forerunner 570 42.4mm dây siliconemẫu mới</t>
+        </is>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
@@ -20130,6 +22415,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J458" t="inlineStr">
+        <is>
+          <t>garmin forerunner 970 47mm dây siliconemẫu mới</t>
+        </is>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
@@ -20173,6 +22463,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J459" t="inlineStr">
+        <is>
+          <t>garmin vivoactive 6 42.2mm dây silicone</t>
+        </is>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
@@ -20216,6 +22511,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J460" t="inlineStr">
+        <is>
+          <t>kidcare k1 54mm dây silicone</t>
+        </is>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
@@ -20259,6 +22559,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J461" t="inlineStr">
+        <is>
+          <t>dây đeo silicone đồng hồ samsung watch 4/ watch 5- hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
@@ -20302,6 +22607,11 @@
           <t>Lazada</t>
         </is>
       </c>
+      <c r="J462" t="inlineStr">
+        <is>
+          <t>đồng hồ thông minh nam nữ- lắp sim thẻ nhớ, nghe gọi, nhắn tin, chụp ảnh, nghe nhạc bảo hành 1 năm</t>
+        </is>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
@@ -20345,6 +22655,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J463" t="inlineStr">
+        <is>
+          <t>cáp sạc nhanh thay thế cho các dòng đồng hồ garmin cổng type c- hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
@@ -20388,6 +22703,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J464" t="inlineStr">
+        <is>
+          <t>dây silicon khóa thể thao cho apple watch series 1/2/3/4/5/6/7/8/9/se1,2 &amp; apple watch ultra 1/2 size 38/40/41/42/44/45/49mm - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
@@ -20431,6 +22751,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J465" t="inlineStr">
+        <is>
+          <t>dây đeo nylon loop cho xiaomi mi band 8 / xiaomi mi band 9 / xiaomi mi band 10 - hàng nhập khẩu</t>
+        </is>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
@@ -20474,6 +22799,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J466" t="inlineStr">
+        <is>
+          <t>đồng hồ thông minh trẻ em học sinh tiểu học thcs thpt chống nước lắp sim định vị kép smart watch ama hw13 hàng nhập khẩu</t>
+        </is>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
@@ -20517,6 +22847,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J467" t="inlineStr">
+        <is>
+          <t>dây đeo thay thế dành cho vòng đeo tay thông minh xiaomi miband 8/ miband 9/ mi band 10 ngàm thép chắc chắn_ hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
@@ -20560,6 +22895,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J468" t="inlineStr">
+        <is>
+          <t>cáp sạc nhanh type c dành cho đồng hồ garmin fenix 7, fenix 6,5, epix, forerunner 955, 945, 935, 245, 255, 45, 645, instinct_ hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
@@ -20603,6 +22943,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J469" t="inlineStr">
+        <is>
+          <t>cáp sạc thay thế cho các dòng đồng hồ garmin fenix 7, fenix 6, fenix 5, forerunner 955, 945, 935, 245, 265, 255, 45, 645, instinct, viviactive 3, venu/ garmin epix gen 2- hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
@@ -20646,6 +22991,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J470" t="inlineStr">
+        <is>
+          <t>dây đồng hồ dành cho apple watch kai.n sport magnetic- hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
@@ -20689,6 +23039,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J471" t="inlineStr">
+        <is>
+          <t>dây đeo thay thế dành cho galaxy watch 5/4/3, huawei watch gt/gt2/gt3/pro, amazfit gt2/3/4,garmin size 20/22mm, kai.n sport band - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
@@ -20732,6 +23087,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J472" t="inlineStr">
+        <is>
+          <t>dock sạc nhanh dành cho samsung galaxy watch 6/ 7/ galaxy watch ultra/ galaxy watch 5/ galaxy watch 5 pro/ galaxy watch 4/ galaxy watch 3 cổng type c_ hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
@@ -20775,6 +23135,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J473" t="inlineStr">
+        <is>
+          <t>shinecon g07e - kính thực tế ảo vr shinecon 2018 version 7 g07e - hàng chính hãng - vr shinecon g07e 9th generation virtual reality 3d video glasses game virtual reality glasses vr headset helmet for android ios</t>
+        </is>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
@@ -20818,6 +23183,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J474" t="inlineStr">
+        <is>
+          <t>bộ 2 miếng dán gor 3d cho apple watch series 4/ 5/ 6/ 7/ 8/ 9/ se size40/ 41/ 44/ 45 mm ( hộp 2 miếng) _hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
@@ -20861,6 +23231,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J475" t="inlineStr">
+        <is>
+          <t>đồng hồ thông minh mini có rung gắn sim định vị gps, wifi đo huyết áp nhịp tim nhắc nhở vận động gọi video call ama watch fa91s - hàng nhập khẩu</t>
+        </is>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
@@ -20904,6 +23279,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J476" t="inlineStr">
+        <is>
+          <t>dây silicon dành cho đồng hồ apple nhiều màu- hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
@@ -20947,6 +23327,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J477" t="inlineStr">
+        <is>
+          <t>dock sạc dành cho huawei watch gt3 / huawei watch gt runner / huawei watch gt3 pro/ huawei watch 4 / huawei watch 4 pro / huawei watch gt 4/ gt5/ gt5 pro - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
@@ -20990,6 +23375,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J478" t="inlineStr">
+        <is>
+          <t>dây đeo thay thế viền dành cho vòng đeo tay thông minh xiaomi mi band 5/ miband 6 - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
@@ -21033,6 +23423,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J479" t="inlineStr">
+        <is>
+          <t>dây đeo thép thay thế dành cho samsung galaxy fit 3, kai.n milanese pro_ hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
@@ -21076,6 +23471,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J480" t="inlineStr">
+        <is>
+          <t>dây đeo sport loop kai dành cho apple watch- hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
@@ -21119,6 +23519,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J481" t="inlineStr">
+        <is>
+          <t>dây cáp sạc cho đồng hồ samsung galaxy fit 3 r390 cổng usb c_ hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
@@ -21162,6 +23567,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J482" t="inlineStr">
+        <is>
+          <t>dây đeo silicone thay thế cho huawei watch fit 3 / fit 4 / fit 4 pro - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
@@ -21205,6 +23615,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J483" t="inlineStr">
+        <is>
+          <t>dây cáp sạc từ tính cho đồng hồ xiaomi mi band 5/ mi band 6/ mi band 7/ mi band 8/ mi band 9/ mi band 10- hàng chính hãng - miband 5/6/7</t>
+        </is>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
@@ -21248,6 +23663,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J484" t="inlineStr">
+        <is>
+          <t>dây đeo silicone ocean cho huawei watch fit 3 / huawei watch fit 4 / huawei watch fit 4 pro - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
@@ -21291,6 +23711,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J485" t="inlineStr">
+        <is>
+          <t>dây đeo cho vòng đeo tay thông minh xiaomi miband 8/ miband 9/ mi band 10 ngàm thép_ hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
@@ -21334,6 +23759,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J486" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cáp sạc thay thế cho các dòng đồng hồ garmin fenix 7, fenix 6, fenix 5, forerunner 955, 945, 935, 245, 265, 255, 45, 645, instinct, viviactive 3, venu/ garmin epix gen 2- hàng nhập khẩu </t>
+        </is>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
@@ -21377,6 +23807,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J487" t="inlineStr">
+        <is>
+          <t>vòng đeo tay thông minh xiaomi smart band 9 active – hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
@@ -21420,6 +23855,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J488" t="inlineStr">
+        <is>
+          <t>dock sạc cho huawei watch gt 2 pro / gt runner / gt3/3pro / gt4/4pro / huawei watch gt5 / huawei watch gt 5 pro - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
@@ -21463,6 +23903,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J489" t="inlineStr">
+        <is>
+          <t>bộ 3 miếng dán cường lực gor cho smartwatch huawei watch gt5/ gt5 pro - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
@@ -21506,6 +23951,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J490" t="inlineStr">
+        <is>
+          <t>đồng hồ thông minh xiaomi redmi watch 5 active – hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
@@ -21549,6 +23999,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J491" t="inlineStr">
+        <is>
+          <t>cáp sạc đế sạc cho samsung galaxy watch 3/4/4classic/5/5pro/6/6classic/7/ultra &amp; galaxy watch active 1/2- hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
@@ -21592,6 +24047,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J492" t="inlineStr">
+        <is>
+          <t>apple watch series 10 gps (viền nhôm, dây cao su)</t>
+        </is>
+      </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
@@ -21635,6 +24095,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J493" t="inlineStr">
+        <is>
+          <t>apple watch se 2024 gps (viền nhôm, dây cao su)</t>
+        </is>
+      </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
@@ -21678,6 +24143,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J494" t="inlineStr">
+        <is>
+          <t>dây đeo inox khóa nam châm dành cho đồng hồ thông minh ama tk, s16 và các các mẫu đồng hồ có kích thước dây 42/44/45/49mm hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
@@ -21721,6 +24191,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J495" t="inlineStr">
+        <is>
+          <t>dán cường lực gor cho smartwatch huawei watch gt3 46mm/ gt3 pro/ huawei watch gt runner/ huawei watch gt4 - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
@@ -21764,6 +24239,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J496" t="inlineStr">
+        <is>
+          <t>dây đeo đồng hồ kai.n sport pro cho huawei watch fit 3/fit 4/ fit 4 pro_hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
@@ -21807,6 +24287,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J497" t="inlineStr">
+        <is>
+          <t>dây đồng hồ dành cho huawei watch fit 3/ fit 4/ fit 4 pro, kai.n sport pro_ hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
@@ -21850,6 +24335,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J498" t="inlineStr">
+        <is>
+          <t>cáp sạc cho đồng hồ samsung galaxy fit 3 r390 cổng type c, kai.n charge_ hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
@@ -21893,6 +24383,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J499" t="inlineStr">
+        <is>
+          <t>đồng hồ thông minh trẻ em ama watch q15 lắp sim nghe gọi 2 chiều 3 màu xanh hồng đen hàng chinh hãng</t>
+        </is>
+      </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
@@ -21936,6 +24431,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J500" t="inlineStr">
+        <is>
+          <t>miếng dán kính cường lực cho đồng hồ samsung galaxy watch ultra/ galaxy watch 7 44/40mm full hd clear 2.5d_ hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
@@ -21979,6 +24479,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J501" t="inlineStr">
+        <is>
+          <t>đồng hồ thông minh cho trẻ em 6 tuổi, 7 tuổi, 8 tuổi, 9 tuổi, 10 tuổi, 11 tuổi lắp sim độc lập nghe gọi 2 chiều ama watch y92 chống nước định vị wifi độ chính xác cao hàng nhập khẩu</t>
+        </is>
+      </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
@@ -22022,6 +24527,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J502" t="inlineStr">
+        <is>
+          <t>dây nylon alpine loop cho apple watch series 1/2/3/4/5/6/7/8/9/se1,2 &amp; apple watch ultra 1/2 size 38/40/41/42/44/45/49mm - hàng nhập khẩu</t>
+        </is>
+      </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
@@ -22065,6 +24575,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J503" t="inlineStr">
+        <is>
+          <t>dây đeo vải dệt dux ducis mixture pro series dành cho apple watch ultra/ apple watch all series_ hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
@@ -22108,6 +24623,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J504" t="inlineStr">
+        <is>
+          <t>dây đeo thay thế  dành cho vòng đeo tay thông minh samsung galaxy fit 3_ hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
@@ -22151,6 +24671,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J505" t="inlineStr">
+        <is>
+          <t>đồng hồ thông minh trẻ em mai duy y85s, lắp sim nghe gọi - định vị cảnh báo nguy hiểm, chống nước  -hàng nhập khẩu</t>
+        </is>
+      </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
@@ -22194,6 +24719,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J506" t="inlineStr">
+        <is>
+          <t>dây đeo thép thay thế dành cho huawei watch fit 3/ fit 4/ fit 4 pro, kai.n milanese pro huawei fit 3_ hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
@@ -22237,6 +24767,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J507" t="inlineStr">
+        <is>
+          <t>dây đeo silicone thay thế cho xiaomi mi band 8 / xiaomi mi band 9 / xiaomi mi band 10 - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
@@ -22280,6 +24815,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J508" t="inlineStr">
+        <is>
+          <t>đồng hồ thông minh lắp sim định vị gps google kết nối wifi 4g blueltooth xem được video youtube tiktok tải app fb messenger skype whatsapp viber wechat kakao line tele chơi game ama smart watch tk android 8.1 cho trẻ em người lớn hàng nhập khẩu</t>
+        </is>
+      </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
@@ -22323,6 +24863,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J509" t="inlineStr">
+        <is>
+          <t>dây đeo tích hợp case vỏ bảo vệ cho xiaomi mi band 8 / xiaomi mi band 9 / xiaomi mi band 10 - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
@@ -22366,6 +24911,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J510" t="inlineStr">
+        <is>
+          <t>dây cao su thay thế cho samsung galaxy fit 2 (sm-r220)- hàng nhập khẩu</t>
+        </is>
+      </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
@@ -22409,6 +24959,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J511" t="inlineStr">
+        <is>
+          <t>dock sạc type-c thay thế dành cho đồng hồ garmin fenix / forerunner / instinct / vivoactive / vivomove / venu / approach / epix - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
@@ -22452,6 +25007,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J512" t="inlineStr">
+        <is>
+          <t>miếng dán cường lực gor cho huawei watch gt 5 41/46mm &amp; huawei watch gt 5 pro 42/46mm - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
@@ -22495,6 +25055,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J513" t="inlineStr">
+        <is>
+          <t>dây đeo silicone thay thế cho xiaomi mi band 9 pro / xiaomi mi band 8 pro / redmi watch 5 / redmi watch 4  - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
@@ -22538,6 +25103,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J514" t="inlineStr">
+        <is>
+          <t>dây thép cho redmi watch 5 / redmi watch 4 / xiaomi mi band 8 pro / xiaomi mi band 9 pro  - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
@@ -22581,6 +25151,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J515" t="inlineStr">
+        <is>
+          <t>dây đeo silicone cho redmi watch 5 / redmi watch 4 / xiaomi mi band 8 pro / xiaomi mi band 9 pro  - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
@@ -22624,6 +25199,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J516" t="inlineStr">
+        <is>
+          <t>vòng đeo tay thông minh xiaomi mi band 10 - bản quốc tế - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
@@ -22667,6 +25247,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J517" t="inlineStr">
+        <is>
+          <t>miếng dán mặt đồng hồ tpu hydrogel film chống trầy cho apple watch 4/5/6/7/8/9/ se ultra_ hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
@@ -22710,6 +25295,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J518" t="inlineStr">
+        <is>
+          <t>dock sạc nhanh khung nhôm hoco cw59 dành cho apple watch/ samsung galaxy watch cổng type c, dây bọc dù_ hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
@@ -22753,6 +25343,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J519" t="inlineStr">
+        <is>
+          <t>dây sạc cáp sạc nam châm đồng hồ thông minh q12, q16, q19, q100, td26, a28, ds60, ds66, y95, d06, df39 hàng nhập khẩu</t>
+        </is>
+      </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
@@ -22796,6 +25391,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J520" t="inlineStr">
+        <is>
+          <t>kính thực tế ảo xem phim 3d vr shinecon cao cấp azone - hàng nhập khẩu</t>
+        </is>
+      </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
@@ -22839,6 +25439,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J521" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> đồng hồ thông minh trẻ em ama q12s model mới nhất ra mắt tháng 12/2021 - hàng nhập khẩu</t>
+        </is>
+      </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
@@ -22882,6 +25487,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J522" t="inlineStr">
+        <is>
+          <t>dây đeo nylon loop cho huawei watch fit 3 / huawei watch fit 4 / huawei watch fit 4 pro - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
@@ -22925,6 +25535,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J523" t="inlineStr">
+        <is>
+          <t>máy trợ giảng không đây aporo  t20 uhf2.4g hàng chính hãng cho giáo viên</t>
+        </is>
+      </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
@@ -22968,6 +25583,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J524" t="inlineStr">
+        <is>
+          <t>máy trợ giảng không dây shidu kết nối bằng tần số cao cấp, mic trợ giảng cho giáo viên và hướng dẫn viên du lịch, loa trợ giảng cài áo tiện lợi, hàng nhập khẩu</t>
+        </is>
+      </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
@@ -23011,6 +25631,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J525" t="inlineStr">
+        <is>
+          <t>loa bluetooth mini 5.0 nhỏ gọn pkcb pf1002 - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
@@ -23054,6 +25679,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J526" t="inlineStr">
+        <is>
+          <t>hàng chính hãng- loa máy vi tính sada v-196, hỗ trợ đèn led, âm thanh siêu trầm</t>
+        </is>
+      </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
@@ -23097,6 +25727,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J527" t="inlineStr">
+        <is>
+          <t>đầu jack chuyển đổi âm thanh từ cổng 3.5mm cái sang cổng 6.5mm đực chính hãng ugreen 20503 - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
@@ -23140,6 +25775,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J528" t="inlineStr">
+        <is>
+          <t>máy trợ giảng không dây shidu sd-s615 (uhf)</t>
+        </is>
+      </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
@@ -23183,6 +25823,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J529" t="inlineStr">
+        <is>
+          <t>loa vi tính soundmax a-130/2.0 6w</t>
+        </is>
+      </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
@@ -23226,6 +25871,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J530" t="inlineStr">
+        <is>
+          <t>loa bluetooth lg xboom grab - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
@@ -23269,6 +25919,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J531" t="inlineStr">
+        <is>
+          <t>loa bluetooth jbl flip 7 - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
@@ -23312,6 +25967,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J532" t="inlineStr">
+        <is>
+          <t>loa bluetooth xiaomi speaker - giaphucstore | hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
@@ -23355,6 +26015,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J533" t="inlineStr">
+        <is>
+          <t>loa vi tính để bàn cho laptop, pc, điện thoại màu đen - hàng nhập khẩu</t>
+        </is>
+      </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
@@ -23398,6 +26063,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J534" t="inlineStr">
+        <is>
+          <t>bộ 3 loa máy tính d222 có đèn led, âm thanh 9d chất lượng tốt, nghe nhạc hay -  hàng nhập khẩu</t>
+        </is>
+      </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
@@ -23441,6 +26111,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J535" t="inlineStr">
+        <is>
+          <t>máy trợ giảng không dây aporo t28 uhf có chống nước ip67 công suất lớn hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
@@ -23484,6 +26159,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J536" t="inlineStr">
+        <is>
+          <t>loa bluetooth 5.3 pkcb 30w super bass tws lên 60w tf card/ line in 3.5mm / aux stereo surround, loa không dây nghe nhạc pin 3000mah - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
@@ -23527,6 +26207,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J537" t="inlineStr">
+        <is>
+          <t>loa logitech bluetooth ultimate ears everboom - chống nước ip67 -  hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
@@ -23570,6 +26255,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J538" t="inlineStr">
+        <is>
+          <t>loa bluetooth alpha works w88 - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
@@ -23613,6 +26303,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J539" t="inlineStr">
+        <is>
+          <t>loa phóng thanh, loa bán hàng có ghi âm, phát lại có cổng usb - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
@@ -23656,6 +26351,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J540" t="inlineStr">
+        <is>
+          <t>máy trợ giảng không dây shidu sd-s611 (uhf)</t>
+        </is>
+      </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
@@ -23699,6 +26399,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J541" t="inlineStr">
+        <is>
+          <t>loa nghe nhạc usb, thẻ nhớ craven 836 2pin (màu ngẫu nhiên) - hàng nhập khẩu</t>
+        </is>
+      </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
@@ -23742,6 +26447,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J542" t="inlineStr">
+        <is>
+          <t>loa bluetooth kiêm pin sạc dự phòng zealot s1 – hàng nhập khẩu</t>
+        </is>
+      </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
@@ -23785,6 +26495,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J543" t="inlineStr">
+        <is>
+          <t>máy trợ giảng unizone uz-u2 - máy trợ giảng không dây hàn quốc chính hãng mới nhất 2020</t>
+        </is>
+      </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
@@ -23828,6 +26543,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J544" t="inlineStr">
+        <is>
+          <t>loa bluetooth kèm pin sạc dự phòng energizer bts-103bk, hỗ trợ chức năng rảnh tay, fm, thẻ micro sd, usb, aux - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
@@ -23871,6 +26591,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J545" t="inlineStr">
+        <is>
+          <t>loa bluetooth 60w công suất lớn super bass chống nước ipx5 pin 6600mah sạc nhanh type c công nghệ ai hàng chính hãng pkcb</t>
+        </is>
+      </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
@@ -23914,6 +26639,11 @@
           <t>Lazada</t>
         </is>
       </c>
+      <c r="J546" t="inlineStr">
+        <is>
+          <t>loa bluetooth s11 thế hệ mới công suất 10w siêu trầm, ấm thanh ấm, bass mạnh, pin trâu - hàng nhập khẩu cao cấp</t>
+        </is>
+      </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
@@ -23957,6 +26687,11 @@
           <t>Lazada</t>
         </is>
       </c>
+      <c r="J547" t="inlineStr">
+        <is>
+          <t>loa karaoke mini bluetooth k12 công suất 10w kèm 2 micro không dây, loa hát karaoke mini bluetooth 2 mic âm thanh cực hay</t>
+        </is>
+      </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
@@ -24000,6 +26735,11 @@
           <t>Lazada</t>
         </is>
       </c>
+      <c r="J548" t="inlineStr">
+        <is>
+          <t>loa nghe nhạc bluetooth không dây màn hình led kiêm đồng hồ báo thức làm đèn ngủ đo nhiệt độ phòng mặt kính tráng gương pin trâu</t>
+        </is>
+      </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
@@ -24043,6 +26783,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J549" t="inlineStr">
+        <is>
+          <t>loa bluetooth ipx56 plus bản mở rộng, chống nước, âm thanh bass cực mạnh. hỗ trợ kết nối bluetooth 5.0, micro nhiều màu sắc - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
@@ -24086,6 +26831,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J550" t="inlineStr">
+        <is>
+          <t>loa bluetooth jbl horizon 2 - hàng chính hãng - đen</t>
+        </is>
+      </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
@@ -24129,6 +26879,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J551" t="inlineStr">
+        <is>
+          <t xml:space="preserve">loa bluetooth không dây speaker nghe usb thẻ nhớ cao cấp hàng chính hãng </t>
+        </is>
+      </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
@@ -24172,6 +26927,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J552" t="inlineStr">
+        <is>
+          <t>loa vi tính 2.0 soundmax a140 tổng công suất</t>
+        </is>
+      </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
@@ -24215,6 +26975,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J553" t="inlineStr">
+        <is>
+          <t>loa vi tính để bàn xsmart mc d221 super bass cực đã, có led, dòng loa cao cấp cho laptop, pc, điện thoại - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
@@ -24258,6 +27023,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J554" t="inlineStr">
+        <is>
+          <t>loa máy tính doron v-196 - âm thanh siêu trầm 4d, bass êm - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
@@ -24301,6 +27071,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J555" t="inlineStr">
+        <is>
+          <t>loa tháp samsung mx-t70/xv - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
@@ -24344,6 +27119,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J556" t="inlineStr">
+        <is>
+          <t>loa bluetooth jbl charge 5 - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
@@ -24387,6 +27167,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J557" t="inlineStr">
+        <is>
+          <t>loa nghe nhạc bluetooth không dây mini littlefun - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
@@ -24430,6 +27215,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J558" t="inlineStr">
+        <is>
+          <t>shidu sd-s258 - máy trợ giảng có dây, công suất 10w, sử dụng 15 giờ cho giáo viên, hướng dẫn viên, bán hàng - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
@@ -24473,6 +27263,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J559" t="inlineStr">
+        <is>
+          <t>loa bluetooth karaoke  qixi sk-2036 , tặng kèm 2 micro không dây cao cấp , hát karaoke nghe nhạc bass mạnh -hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
@@ -24516,6 +27311,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J560" t="inlineStr">
+        <is>
+          <t>loa bluetooth karaoke suyosd ys-230 kèm 2 micro không dây -hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
@@ -24559,6 +27359,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J561" t="inlineStr">
+        <is>
+          <t>loa bluetooth marshall acton iii - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
@@ -24602,6 +27407,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J562" t="inlineStr">
+        <is>
+          <t>loa vi tính cao cấp logitech z313 2.1 loa siêu trầm nhỏ gọn - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
@@ -24645,6 +27455,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J563" t="inlineStr">
+        <is>
+          <t>oa máy trợ giảng chính hãng aporo t18 2.4g plus, t25 2.4g, hàng chính hãng  (bảo hành 12 tháng quà khuyến mại)</t>
+        </is>
+      </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
@@ -24688,6 +27503,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J564" t="inlineStr">
+        <is>
+          <t>loa kéo nanomax sk-12f3 bass 3 tấc 30cm công suất 450w karaoke bluetooth hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
@@ -24731,6 +27551,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J565" t="inlineStr">
+        <is>
+          <t>loa bluetooth soundmax r-800 - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
@@ -24774,6 +27599,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J566" t="inlineStr">
+        <is>
+          <t>loa bluetooth có đèn icore b500 - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
@@ -24817,6 +27647,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J567" t="inlineStr">
+        <is>
+          <t>loa bluetooth pkcb bản mở rộng, chip dsp, hỗ trợ kết nối bluetooth, usb, thẻ nhớ,  dây 3.5mm 100w tws âm thanh sống động - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
@@ -24860,6 +27695,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J568" t="inlineStr">
+        <is>
+          <t>loa bluetooth jbl charge 5 jblcharge5 - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
@@ -24903,6 +27743,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J569" t="inlineStr">
+        <is>
+          <t>loa bluetooth nghe nhạc không dây 100w công suất lớn super bass có cổng usb, thẻ nhớ, line 3.5mm pin 10400mah sạc type c chip dsp tws lên 200w cao cấp hàng chính hãng pkcb</t>
+        </is>
+      </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
@@ -24946,6 +27791,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J570" t="inlineStr">
+        <is>
+          <t>loa bluetooth hoco hc3 v5.0 - loa thể thao không dây cao cấp âm thanh sống động tương thích nhiều thiết bị - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
@@ -24989,6 +27839,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J571" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> loa tháp samsung mx-t40/xv 300w - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
@@ -25032,6 +27887,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J572" t="inlineStr">
+        <is>
+          <t>loa bluetooth speaker loa di động chip dps khuyếch đại âm thanh công suất lớn 50w kết nối tws lên 100w  hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
@@ -25075,6 +27935,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J573" t="inlineStr">
+        <is>
+          <t>loa bluetooth hxsj v6 bản mở rộng hỗ trợ kết nối bluetooth 5.0, thẻ nhớ, usb, công suất 2 loa 10w nhiều màu sắc - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
@@ -25118,6 +27983,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J574" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> loa di động klipsch the one ii - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
@@ -25161,6 +28031,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J575" t="inlineStr">
+        <is>
+          <t>loa bluetooth rezo killburn 1mẫu mới</t>
+        </is>
+      </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
@@ -25204,6 +28079,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J576" t="inlineStr">
+        <is>
+          <t>loa bluetooth rezo play</t>
+        </is>
+      </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
@@ -25247,6 +28127,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J577" t="inlineStr">
+        <is>
+          <t>loa bluetooth marshall emberton iii</t>
+        </is>
+      </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
@@ -25290,6 +28175,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J578" t="inlineStr">
+        <is>
+          <t>loa bluetooth jbl partybox 520mẫu mới</t>
+        </is>
+      </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
@@ -25333,6 +28223,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J579" t="inlineStr">
+        <is>
+          <t>loa bluetooth xiaomi sound pocket</t>
+        </is>
+      </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
@@ -25376,6 +28271,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J580" t="inlineStr">
+        <is>
+          <t>loa bluetooth rezo lightcampmẫu mới</t>
+        </is>
+      </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
@@ -25419,6 +28319,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J581" t="inlineStr">
+        <is>
+          <t>loa bluetooth jbl flip 7mẫu mới</t>
+        </is>
+      </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
@@ -25462,6 +28367,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J582" t="inlineStr">
+        <is>
+          <t>loa bluetooth jbl charge 6mẫu mới</t>
+        </is>
+      </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
@@ -25505,6 +28415,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J583" t="inlineStr">
+        <is>
+          <t>máy nghe nhạc bluetooth thể thao ruizu x50 / x52 - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
@@ -25548,6 +28463,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J584" t="inlineStr">
+        <is>
+          <t>loa máy trợ giảng không dây aporo t18 plus 2.4g wifi bluetooth 5.0 hàng chính hãng (lựa chọn thêm hộp bảo vệ aporo)</t>
+        </is>
+      </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
@@ -25591,6 +28511,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J585" t="inlineStr">
+        <is>
+          <t>loa bluetooth ava+ led k09</t>
+        </is>
+      </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
@@ -25634,6 +28559,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J586" t="inlineStr">
+        <is>
+          <t>loa bluetooth jbl go 4 - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
@@ -25677,6 +28607,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J587" t="inlineStr">
+        <is>
+          <t>loa bluetooth jbl clip 5 - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
@@ -25720,6 +28655,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J588" t="inlineStr">
+        <is>
+          <t>loa bluetooth lg xboom go xg2 - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
@@ -25763,6 +28703,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J589" t="inlineStr">
+        <is>
+          <t>[new arrival] loa bluetooth marshall willen ii portable - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
@@ -25806,6 +28751,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J590" t="inlineStr">
+        <is>
+          <t>loa vi tính soundbar q2 cho máy tính laptop hàng nhập khẩu</t>
+        </is>
+      </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
@@ -25849,6 +28799,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J591" t="inlineStr">
+        <is>
+          <t>loa máy tính e1002 dùng cho máy tính bàn, pc, laptop, âm thanh 4d chất lượng tốt - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
@@ -25892,6 +28847,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J592" t="inlineStr">
+        <is>
+          <t>loa bluetooth chữ g led rgb, sạc nhanh không dây, đèn nháy theo nhạc, đồng hồ báo giờ đa chức năng - hàng chính hãng miniin</t>
+        </is>
+      </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
@@ -25935,6 +28895,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J593" t="inlineStr">
+        <is>
+          <t>loa bluetooth mini karaoke không dây, kèm 2 mic, âm thanh sống động, đèn led 16 màu - hàng chính hãng miniin</t>
+        </is>
+      </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
@@ -25978,6 +28943,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J594" t="inlineStr">
+        <is>
+          <t xml:space="preserve">loa vi tính để bàn super bass cực đã dòng loa cao cấp cho laptop, pc, điện thoại màu đen 106x66mm - hàng chính hãng </t>
+        </is>
+      </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
@@ -26021,6 +28991,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J595" t="inlineStr">
+        <is>
+          <t>loa bluetooth ngoài trời xiaomi bhr4802gl | chống nước ip67 | thời gian chơi nhạc 10h | bản quốc tế | bảo hành 1 năm | hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
@@ -26064,6 +29039,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J596" t="inlineStr">
+        <is>
+          <t>loa bluetooth jbl charge 6 - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
@@ -26107,6 +29087,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J597" t="inlineStr">
+        <is>
+          <t>loa crown 5 đế có bluetooth ( hàng chính hãng )</t>
+        </is>
+      </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
@@ -26150,6 +29135,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J598" t="inlineStr">
+        <is>
+          <t>loa bluetooth jbl clip 5</t>
+        </is>
+      </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
@@ -26193,6 +29183,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J599" t="inlineStr">
+        <is>
+          <t>loa bluetooth jbl charge 6mẫu mới</t>
+        </is>
+      </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
@@ -26236,6 +29231,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J600" t="inlineStr">
+        <is>
+          <t>loa bluetooth jbl flip 7mẫu mới</t>
+        </is>
+      </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
@@ -26279,6 +29279,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J601" t="inlineStr">
+        <is>
+          <t>loa bluetooth pkcb bản mở rộng, chống nước ipx5 hỗ trợ kết nối bluetooth ,thẻ nhớ, usb - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
@@ -26322,6 +29327,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J602" t="inlineStr">
+        <is>
+          <t>loa bluetooth pkcb bản mở rộng, chống nước ipx5 hỗ trợ kết nối bluetooth ,thẻ nhớ, usb - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
@@ -26365,6 +29375,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J603" t="inlineStr">
+        <is>
+          <t>loa bluetooth không dây siêu bass âm thanh trầm nghe nhạc usb thẻ nhớ - hàng chính hãng pkcb</t>
+        </is>
+      </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
@@ -26408,6 +29423,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J604" t="inlineStr">
+        <is>
+          <t>loa gỗ vi tính e350 sound bar hd nhỏ gọn - hàng nhập khẩu</t>
+        </is>
+      </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
@@ -26451,6 +29471,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J605" t="inlineStr">
+        <is>
+          <t>loa máy tính game thủ ldk.ai rgb 2.1 leefei - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
@@ -26494,6 +29519,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J606" t="inlineStr">
+        <is>
+          <t>combo bộ ba loa máy tính doron mc-d221 super bass , âm thanh vòm 9d - có đèn led - hàng nhập khẩu</t>
+        </is>
+      </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
@@ -26537,6 +29567,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J607" t="inlineStr">
+        <is>
+          <t>loa máy tính latop soundmax a160 - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
@@ -26580,6 +29615,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J608" t="inlineStr">
+        <is>
+          <t>máy trợ giảng không dây takstar e261w khoảng cách truyền 40m, công suất cao 25w -tặng túi đựng máy trợ giảng - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
@@ -26623,6 +29663,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J609" t="inlineStr">
+        <is>
+          <t>loa máy tính để bàn, âm thanh siêu trầm, dành cho học online, nghe nhạc, xem phim - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
@@ -26666,6 +29711,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J610" t="inlineStr">
+        <is>
+          <t>loa vi tính q9 sound bar hd led rgb cho máy tính, laptop, điện thoại, máy tính bảng hàng nhập khẩu</t>
+        </is>
+      </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
@@ -26709,6 +29759,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J611" t="inlineStr">
+        <is>
+          <t>loa bluetooth jbl flip 6 - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
@@ -26752,6 +29807,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J612" t="inlineStr">
+        <is>
+          <t>loa vi tính loa gỗ công suất lớn dùng cho pc, laptop, đt,tivi - leerfei yst 3513 2.0 - nth - hàng nhập khẩu</t>
+        </is>
+      </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
@@ -26795,6 +29855,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J613" t="inlineStr">
+        <is>
+          <t>loa gỗ bluetooth xm 520 - âm thanh cực hay - jl - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
@@ -26838,6 +29903,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J614" t="inlineStr">
+        <is>
+          <t>loa bluetooth karaoke su-yosd ys104 - loa xách tay mini chất liệu nhựa cao cấp, công suất 6w và micro không dây - hàng nhập khẩu</t>
+        </is>
+      </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
@@ -26881,6 +29951,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J615" t="inlineStr">
+        <is>
+          <t>loa momo thông báo chuyển khoản - tặng khay qrcode - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
@@ -26924,6 +29999,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J616" t="inlineStr">
+        <is>
+          <t>loa bluetooth jbl clip 5</t>
+        </is>
+      </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
@@ -26967,6 +30047,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J617" t="inlineStr">
+        <is>
+          <t>loa bluetooth ava+ led k09</t>
+        </is>
+      </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
@@ -27010,6 +30095,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J618" t="inlineStr">
+        <is>
+          <t>loa bluetooth rezo killburn 1mẫu mới</t>
+        </is>
+      </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
@@ -27053,6 +30143,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J619" t="inlineStr">
+        <is>
+          <t>loa bluetooth rezo play</t>
+        </is>
+      </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
@@ -27096,6 +30191,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J620" t="inlineStr">
+        <is>
+          <t>loa bluetooth marshall emberton iii</t>
+        </is>
+      </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
@@ -27139,6 +30239,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J621" t="inlineStr">
+        <is>
+          <t>loa bluetooth jbl partybox 520mẫu mới</t>
+        </is>
+      </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
@@ -27182,6 +30287,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J622" t="inlineStr">
+        <is>
+          <t>loa bluetooth xiaomi sound pocket</t>
+        </is>
+      </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
@@ -27225,6 +30335,11 @@
           <t>TGDD</t>
         </is>
       </c>
+      <c r="J623" t="inlineStr">
+        <is>
+          <t>loa bluetooth rezo lightcampmẫu mới</t>
+        </is>
+      </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
@@ -27268,6 +30383,11 @@
           <t>Tiki</t>
         </is>
       </c>
+      <c r="J624" t="inlineStr">
+        <is>
+          <t>loa bluetooth pkcb bản mở rộng, chống nước ipx5 hỗ trợ kết nối bluetooth ,thẻ nhớ, usb  - hàng chính hãng</t>
+        </is>
+      </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
@@ -27309,6 +30429,11 @@
       <c r="I625" t="inlineStr">
         <is>
           <t>Tiki</t>
+        </is>
+      </c>
+      <c r="J625" t="inlineStr">
+        <is>
+          <t>máy nghe nhạc mp3 ruizu x02 8gb - hàng chính hãng</t>
         </is>
       </c>
     </row>
